--- a/samples/SA-عينة-منتجات-الصيدلية-preview.xlsx
+++ b/samples/SA-عينة-منتجات-الصيدلية-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="752">
   <si>
     <t>Name_En</t>
   </si>
@@ -61,517 +61,508 @@
     <t>Images</t>
   </si>
   <si>
-    <t>salinose COLD DEFENCE microgel spray 20ml</t>
-  </si>
-  <si>
-    <t>Prof Suspension 100 ml</t>
-  </si>
-  <si>
-    <t>Baby Water Gripe Syrup 120ml</t>
-  </si>
-  <si>
-    <t>Exforge high blood pressure treatment 10/160 mg Tablet 28pcs</t>
-  </si>
-  <si>
-    <t>Diclomax 50 mg Tablet 20pcs</t>
-  </si>
-  <si>
-    <t>Kromafina 4 Mg/5 Ml Oral Solution 50ml</t>
-  </si>
-  <si>
-    <t>Exylin Cough Syrup For Adults 125 ml</t>
-  </si>
-  <si>
-    <t>Fusibact-B Cream 15 gm</t>
-  </si>
-  <si>
-    <t>Arbaval 320 Mg 28 Tab</t>
-  </si>
-  <si>
-    <t>Mafepain 500 mg Tablet 20 Pcs</t>
-  </si>
-  <si>
-    <t>Betaserc 24 mg Tablet 50pcs</t>
-  </si>
-  <si>
-    <t>First Step Plaster Pieces Regular 50 Pieces</t>
-  </si>
-  <si>
-    <t>Klacid XL 500 MG 14 Tab</t>
-  </si>
-  <si>
-    <t>Omron C102 Total 2-In-1 Nebuliser with Nasal Shower</t>
-  </si>
-  <si>
-    <t>Aprovasc 150/5 Mg 28 Tab</t>
-  </si>
-  <si>
-    <t>Masque B.A.R Charcoal Cleanser 300Ml</t>
-  </si>
-  <si>
-    <t>EZ Care Oily Skin Cleanser 110 Ml</t>
-  </si>
-  <si>
-    <t>Avene Cleanance Micellar Water 400 ml</t>
-  </si>
-  <si>
-    <t>Eveline White Prestige 4D Whitening Day Cream 50l</t>
-  </si>
-  <si>
-    <t>Babe Pediatric Intimate Hygiene Gel 200 ml</t>
-  </si>
-  <si>
-    <t>Christian Laurent Micellar Water with Rose Water and Royal Peony 500ml</t>
-  </si>
-  <si>
-    <t>Avalon Care Bio-Cellulose Anti-Aging Mask 10 ml</t>
-  </si>
-  <si>
-    <t>Masque B.A.R In.Gredients Mango Sleeping Mask</t>
-  </si>
-  <si>
-    <t>St. Ives Glowing Sheet Mask Apricot</t>
-  </si>
-  <si>
-    <t>Maxon Soft White Cream 50 ml</t>
-  </si>
-  <si>
-    <t>Beesline Express White Sapphire luxury 12 Pcs</t>
-  </si>
-  <si>
-    <t>Sensitelial Spf 100 Cream 40 ML 50120</t>
-  </si>
-  <si>
-    <t>NIVEA Face Scrub Daily Exfoliating, Clear Up Unclogs Pores Anti-Acne Sea Salt, Salicylic &amp; Hyaluronic Acid, 75ml</t>
-  </si>
-  <si>
-    <t>Rauos Sunscreen Spray Spf50 Mummy shabon 70ml</t>
-  </si>
-  <si>
-    <t>Janssen Cosmetics Brightening Face Cleanser</t>
-  </si>
-  <si>
-    <t>Intervion Hair Brush Pastel Spring Soft &amp;Delicate</t>
-  </si>
-  <si>
-    <t>Maui Moist Nourish &amp; Moist+ Coconut Milk Shampo 385ml</t>
-  </si>
-  <si>
-    <t>Veet Easy Grip Ready-to-Use Wax Strips For Normal Skin 20 Strips</t>
-  </si>
-  <si>
-    <t>Veet Sensitive Skin Hair Removal Cream with Aloe Vera and Vitamin E 100 ml</t>
-  </si>
-  <si>
-    <t>Enliven Men Hair Gel Firm Red 500ml</t>
-  </si>
-  <si>
-    <t>Intervion Hair Comb Glass with Wide Pins</t>
-  </si>
-  <si>
-    <t>Il Salone Plex Bond Rebuilder Mask for reconstruction very damaged hair 150 Ml</t>
-  </si>
-  <si>
-    <t>Babe Anti-Hair Loss Shampoo 250 Ml</t>
-  </si>
-  <si>
-    <t>Herbal Essences Aloe + Avocado Mask 250ml</t>
-  </si>
-  <si>
-    <t>BETER Ergnomic Pedicure File Fibreglass</t>
-  </si>
-  <si>
-    <t>Garnier Ultra Doux Avocado Oil &amp; Shea Butter Shampoo 400ml</t>
-  </si>
-  <si>
-    <t>Philips Body groom Series 3000 BG3010</t>
-  </si>
-  <si>
-    <t>Ego QV Moov Comb For Lice</t>
-  </si>
-  <si>
-    <t>Dove Conditioner Detox Ritual 350ml</t>
-  </si>
-  <si>
-    <t>Wella Koleston 2000Â MaxiÂ 304/0Â MediumÂ Brown</t>
-  </si>
-  <si>
-    <t>Baby Life Giant Pack Maxi 11-18 Kg 66 Diapers</t>
-  </si>
-  <si>
-    <t>Bambi Wet Wipes Chamomil (Lotion) 4 X (2+1 Free) X 64</t>
-  </si>
-  <si>
-    <t>Cetaphil Baby Gentle Wash and Shampoo 300ml</t>
-  </si>
-  <si>
-    <t>NestlÃ© Nan Pro 3 Follow-Up Formula Powder 400 gm</t>
-  </si>
-  <si>
-    <t>CANPOL Easystart wide neck silicone teat - mini (1 pc)</t>
-  </si>
-  <si>
-    <t>Pigeon Peristaltic Nursing Bottle Plastic KPP White Hand 240</t>
-  </si>
-  <si>
-    <t>Primalac No 3 Ultima Family Pack 3X400g</t>
-  </si>
-  <si>
-    <t>Sebamed Baby Bubble Bath 200 ML</t>
-  </si>
-  <si>
-    <t>Chicco Plastic Bottle Boy 150 Ml</t>
-  </si>
-  <si>
-    <t>Bambi Premium Soft Touch Small 136 Box</t>
-  </si>
-  <si>
-    <t>Baby Life Pull Ups Medium 4-9 Kg 48 Pants</t>
-  </si>
-  <si>
-    <t>Bambi Jumbo Large 3 X 62</t>
-  </si>
-  <si>
-    <t>Exceeda Baby Milk Growing Up Formula For Children 850 gm</t>
-  </si>
-  <si>
-    <t>Nuby Natural Flex Orthodontic Pacifier 0-6m</t>
-  </si>
-  <si>
-    <t>Huggies Extra Care Culottes, Size 5, 12 - 17 kg, Jumbo Pack, 44 Diaper Pants</t>
-  </si>
-  <si>
-    <t>Dicoflor Elle Vaginal 7 Cap</t>
-  </si>
-  <si>
-    <t>Nocilla, Chocolate spread 0% Gluten&amp; Palm 12x190G</t>
-  </si>
-  <si>
-    <t>Megatone Syrup 227 Ml</t>
-  </si>
-  <si>
-    <t>mentos chewing gum white tutti frutti 38 pcs</t>
-  </si>
-  <si>
-    <t>Lenny&amp;Larry's Keto Cookie- Peanut Butter</t>
-  </si>
-  <si>
-    <t>Canderel Chocolate Almond Bag 40G</t>
-  </si>
-  <si>
-    <t>Pharmaton Dietary Supplement 100 Cap</t>
-  </si>
-  <si>
-    <t>Holista Curcumin 1260 Mg 120Gummies</t>
-  </si>
-  <si>
-    <t>Dandifree Anti Dandruff Shampoo 120ml 8490</t>
-  </si>
-  <si>
-    <t>Digesta Multi Cereals 167g</t>
-  </si>
-  <si>
-    <t>Sulomate Omega 1000 Mg 90 Cap</t>
-  </si>
-  <si>
-    <t>Pyridoxin 40 MG 20 Tab</t>
-  </si>
-  <si>
-    <t>Holista Melatonin 1mg 60 Gummies</t>
-  </si>
-  <si>
-    <t>Bakalland BA ! Energy Bar: 5 Forest Fruits 40g</t>
-  </si>
-  <si>
-    <t>Grenade Carb Killa High Protein Shake- Fudge Brownie</t>
-  </si>
-  <si>
-    <t>Maybelline Fit ME Concealer 55</t>
-  </si>
-  <si>
-    <t>Makeup Revolution Iconic MatPr</t>
-  </si>
-  <si>
-    <t>Revlon Classic Super Lustrous Gloss Pink Pop 235</t>
-  </si>
-  <si>
-    <t>Bourjois City Radiance Foundation Brightening Effect 01</t>
-  </si>
-  <si>
-    <t>Catrice Glowdoscope Highlighter Palette 010</t>
-  </si>
-  <si>
-    <t>Bourjois Radiance Reveal Concealer 01 Ivory</t>
-  </si>
-  <si>
-    <t>Catrice Generation Matt Comfortable Liquid Lipstick 100</t>
-  </si>
-  <si>
-    <t>Rimmel Magnifeyes Double Ended Bronze Eye Liner</t>
-  </si>
-  <si>
-    <t>Revlon Colorstay 2-In-1 Angled Kajal - 102 Fig</t>
-  </si>
-  <si>
-    <t>Essie Nail Polish Gel Couture DRESS CALL 180 13,5 ml</t>
-  </si>
-  <si>
-    <t>Essence Kajal Pencil 25 Feel The Mari-Time 1g</t>
-  </si>
-  <si>
-    <t>Flormar Water Proof EYELINER PENCIL 113</t>
-  </si>
-  <si>
-    <t>Bourjois La Laque Gel 13 Reddy For Love Nail Enamel 10ml</t>
-  </si>
-  <si>
-    <t>Laino Lip Care Blackcurrant</t>
-  </si>
-  <si>
-    <t>Revlon Classic Core Nail Enamel Hypnotic 450</t>
-  </si>
-  <si>
-    <t>سالينوز كولد ديفينس</t>
-  </si>
-  <si>
-    <t>شراب بروف معلق 100 مل</t>
-  </si>
-  <si>
-    <t>ماء بيبي ماء غريب 120مل</t>
-  </si>
-  <si>
-    <t>اكسفورج لعلاج ضغط الدم 10/160 مجم 28 قرص</t>
-  </si>
-  <si>
-    <t>ديكلوماكس 50 مجم 20 قرص</t>
-  </si>
-  <si>
-    <t>كرومافينا 4 مجم/ 5 مل شراب</t>
-  </si>
-  <si>
-    <t>إكسلين شراب البالغين للسعال 100 مل</t>
-  </si>
-  <si>
-    <t>فيوسيباكت ب كريم 15جم</t>
-  </si>
-  <si>
-    <t>اربافال 320جم 28 قرص</t>
-  </si>
-  <si>
-    <t>أقراص مافيبين 500 ملجم 20 قرص</t>
-  </si>
-  <si>
-    <t>بيتاسيرك24 مجم 50 قرص</t>
-  </si>
-  <si>
-    <t>فرست ستيب بلاستر قطع عادى 50 قطعة</t>
-  </si>
-  <si>
-    <t>كلاسيد اكس 500 مجم - 14 قرص</t>
-  </si>
-  <si>
-    <t>بخاخ أمرون C102 توتال 2 في 1 مع منظف الأنف</t>
-  </si>
-  <si>
-    <t>ابروفاسك 150/5 ملغم 28 قرص</t>
-  </si>
-  <si>
-    <t>ماسك بار غسول البشرة بالفحمss</t>
-  </si>
-  <si>
-    <t>إيزي كير غسول خفيف للبشرة الدهنية 110 مللي</t>
-  </si>
-  <si>
-    <t>افين ماء ميسيلار منظف و مزيل مكياج 400 مل</t>
-  </si>
-  <si>
-    <t>إيفيلاين وايت برستيج فوردى - كريم تفتيح نهاري 50 مل</t>
-  </si>
-  <si>
-    <t>بابي جل للعناية الشخصية للأطفال 200 مل</t>
-  </si>
-  <si>
-    <t>كريستيان لوران ماء ميسيلار الحصري بماء الورد والفاوانيا الملكية 500مل</t>
-  </si>
-  <si>
-    <t>ماسك بار إن جريدينت ماسك النوم بالمانجو</t>
-  </si>
-  <si>
-    <t>سينت أيفيس ماسك شيت بالمشمش</t>
-  </si>
-  <si>
-    <t>كريم ماكسون سوفت وايت للتفتيح 50 مل</t>
-  </si>
-  <si>
-    <t>بيزلين قناع فاخر بالزفير الأبيض 30جم</t>
-  </si>
-  <si>
-    <t>نيڤيا العناية بالوجه مقشر للوجه أكني كنترول، 75 مل</t>
-  </si>
-  <si>
-    <t>رايوس واقي الشمس البخاخ برائحة الصابون 70 مل</t>
-  </si>
-  <si>
-    <t>جانسن منظف للوجه 200 مل</t>
-  </si>
-  <si>
-    <t>إنترفيون - فرشاة شعر ، بيضاوية ، مجموعة ربيع الباستيل</t>
-  </si>
-  <si>
-    <t>ماوي شامبو بخلاصة حليب جوز الهند المغذي والمرطب, 385مل</t>
-  </si>
-  <si>
-    <t>شرائح فيت إيزي جريب الشمعية جاهزة للاستخدام للبشرة العادية 20 شريحة</t>
-  </si>
-  <si>
-    <t>كريم فيت لإزالة الشعر للبشرة الحساسة بخلاصة الصبار وفيتامين E 100 مل</t>
-  </si>
-  <si>
-    <t>أنليفين جل للشعر ثبات متوسط 500 جرام</t>
-  </si>
-  <si>
-    <t>إنترفيون - مشط زجاجي عريض</t>
-  </si>
-  <si>
-    <t>ال صالون بليكس ماسك للاصلاح المكثف وإعادة بناء ألياف الشعر شديد التلف 150مل</t>
-  </si>
-  <si>
-    <t>بابي شامبو لتساقط الشعر 250مل</t>
-  </si>
-  <si>
-    <t>هيبربل ماسك الصبار و الافوكادو 6*250 مل</t>
-  </si>
-  <si>
-    <t>بيتر مبرد الأظافر للباديكير من الألياف الزجاجية</t>
-  </si>
-  <si>
-    <t>شامبو غارنييه ألترا دوكس بزيت الأفوكادو وزبدة الشيا 400 مل</t>
-  </si>
-  <si>
-    <t>فيلبس ماكينة حلاقه لشعر الجسم طراز 3000</t>
-  </si>
-  <si>
-    <t>إجو كيوڤي مشط قمل الراس</t>
-  </si>
-  <si>
-    <t>بلسم دوڤ روتين الديتوكس</t>
-  </si>
-  <si>
-    <t>صبغة شغر ويلا كوليستون ـ ماكسي بني متوسط رقم 304/0</t>
-  </si>
-  <si>
-    <t>بيبي لايف حفائض أطفال العبوة العملاقة ماكسي مقاس 5 - 66 حفاض</t>
-  </si>
-  <si>
-    <t>بامبي مناديل مبللة للأطفال للتنظيف اليومي 2+1 مجانا</t>
-  </si>
-  <si>
-    <t>غسول وشامبو سيتافيل للأطفال 300 مل</t>
-  </si>
-  <si>
-    <t>حليب نستله نان برو 3 المجفف المرحلة 3 لمتابعة نمو الأطفال بعد 12 شهرًا 400 جم</t>
-  </si>
-  <si>
-    <t>كانبول بيبي حلمة سليكون ايزى استارت رقبة عريضة حديث الولادة</t>
-  </si>
-  <si>
-    <t>زجاجة رضاعة التمعجية بلاستيك من بيجون 240 مل</t>
-  </si>
-  <si>
-    <t>بريملاك التيما 3 عرض (3 في 4٠٠ جرام)</t>
-  </si>
-  <si>
-    <t>فقاعات استحمام سيباميد للاطفال - 200 مل</t>
-  </si>
-  <si>
-    <t>شيكو رضاعة بلاستيك اولادي منذ الولادة مع حلمة سيلكون 150 مل</t>
-  </si>
-  <si>
-    <t>حفائض بامبي صغير جامبو بوكس 136 حفاض</t>
-  </si>
-  <si>
-    <t>بيبي لايف حفائض أطفال كلوت وسط مقاس 3 - 48 حفاض</t>
-  </si>
-  <si>
-    <t>سانيتا بامبي حفائض أطفال عبوه عملاقة كبير 62*3</t>
-  </si>
-  <si>
-    <t>حليب أطفال إكسيدا لدعم النمو الصحي للأطفال 850 جم</t>
-  </si>
-  <si>
-    <t>نوبي ناتشرال تاتش - لهاية مائلة 6-12</t>
-  </si>
-  <si>
-    <t>هجيز كلوتات العناية الفائقة، مقاس 5، وزن من 12 - 17 كجم، عبوة جامبو تحتوي على 44 حفاضة</t>
-  </si>
-  <si>
-    <t>ديكوفلور إل 7 كبسولات مهبليه</t>
-  </si>
-  <si>
-    <t>ميجاتون شراب 227 مل</t>
-  </si>
-  <si>
-    <t>علك منتوس توتي فروتي الابيض 38 قطعة</t>
-  </si>
-  <si>
-    <t>ليني ولاريز كيتو كوكي- زبدة الفول السوداني</t>
-  </si>
-  <si>
-    <t>كاندريل شوكولاتة باللوز كيس 40 جم</t>
-  </si>
-  <si>
-    <t>هوليستا كوركومين 1260 مع</t>
-  </si>
-  <si>
-    <t>داندي فري شامبو 120 مل</t>
-  </si>
-  <si>
-    <t>دايجست سيريل 167 غرام</t>
-  </si>
-  <si>
-    <t>سولوميت أوميجا 1000 ملجم 90 كبسولة</t>
-  </si>
-  <si>
-    <t>بيريدوكسين حبوب 40مجم 20حبه</t>
-  </si>
-  <si>
-    <t>هوليستا ميلاتونين 60 جامييز</t>
-  </si>
-  <si>
-    <t>بي اي شريط الطاقة: 5 فواكه غابات 40 جم</t>
-  </si>
-  <si>
-    <t>جرينيد كارب كيلا شيك بروتين عالي - فادج براوني</t>
-  </si>
-  <si>
-    <t>مايبلين كونسيلر 55</t>
-  </si>
-  <si>
-    <t>ميك أب ريفوليوشن 452</t>
-  </si>
-  <si>
-    <t>باليت هايلايت 010</t>
-  </si>
-  <si>
-    <t>بورجوا خافي عيوب الوجه راديانس ريفيل 0 علاجي</t>
-  </si>
-  <si>
-    <t>كاتريس أحمر شفاه سائل مات جينيريشن مات كومفورتبل 100</t>
-  </si>
-  <si>
-    <t>ريمل مكياج 127</t>
-  </si>
-  <si>
-    <t>ايسي طلاء اظافر جيل كوتور يدوم طويلا رقم 180 13.5 مل</t>
-  </si>
-  <si>
-    <t>ايسنس قلم كاجال فيل ذا ماري - تايم 25 1g</t>
-  </si>
-  <si>
-    <t>فلورمار قلم تحديد 113</t>
-  </si>
-  <si>
-    <t>مرطب شفاة بالكشمش</t>
+    <t>salinose COLD ...</t>
+  </si>
+  <si>
+    <t>Prof Suspensio...</t>
+  </si>
+  <si>
+    <t>Baby Water Gri...</t>
+  </si>
+  <si>
+    <t>Exforge high b...</t>
+  </si>
+  <si>
+    <t>Diclomax 50 mg...</t>
+  </si>
+  <si>
+    <t>Kromafina 4 Mg...</t>
+  </si>
+  <si>
+    <t>Exylin Cough S...</t>
+  </si>
+  <si>
+    <t>Fusibact-B Cre...</t>
+  </si>
+  <si>
+    <t>Arbaval 320 Mg...</t>
+  </si>
+  <si>
+    <t>Mafepain 500 m...</t>
+  </si>
+  <si>
+    <t>Betaserc 24 mg...</t>
+  </si>
+  <si>
+    <t>First Step Pla...</t>
+  </si>
+  <si>
+    <t>Klacid XL 500 ...</t>
+  </si>
+  <si>
+    <t>Omron C102 Tot...</t>
+  </si>
+  <si>
+    <t>Aprovasc 150/5...</t>
+  </si>
+  <si>
+    <t>Masque B.A.R C...</t>
+  </si>
+  <si>
+    <t>EZ Care Oily S...</t>
+  </si>
+  <si>
+    <t>Avene Cleananc...</t>
+  </si>
+  <si>
+    <t>Eveline White ...</t>
+  </si>
+  <si>
+    <t>Babe Pediatric...</t>
+  </si>
+  <si>
+    <t>Christian Laur...</t>
+  </si>
+  <si>
+    <t>Avalon Care Bi...</t>
+  </si>
+  <si>
+    <t>Masque B.A.R I...</t>
+  </si>
+  <si>
+    <t>St. Ives Glowi...</t>
+  </si>
+  <si>
+    <t>Maxon Soft Whi...</t>
+  </si>
+  <si>
+    <t>Beesline Expre...</t>
+  </si>
+  <si>
+    <t>Sensitelial Sp...</t>
+  </si>
+  <si>
+    <t>NIVEA Face Scr...</t>
+  </si>
+  <si>
+    <t>Rauos Sunscree...</t>
+  </si>
+  <si>
+    <t>Janssen Cosmet...</t>
+  </si>
+  <si>
+    <t>Intervion Hair...</t>
+  </si>
+  <si>
+    <t>Maui Moist Nou...</t>
+  </si>
+  <si>
+    <t>Veet Easy Grip...</t>
+  </si>
+  <si>
+    <t>Veet Sensitive...</t>
+  </si>
+  <si>
+    <t>Enliven Men Ha...</t>
+  </si>
+  <si>
+    <t>Il Salone Plex...</t>
+  </si>
+  <si>
+    <t>Babe Anti-Hair...</t>
+  </si>
+  <si>
+    <t>Herbal Essence...</t>
+  </si>
+  <si>
+    <t>BETER Ergnomic...</t>
+  </si>
+  <si>
+    <t>Garnier Ultra ...</t>
+  </si>
+  <si>
+    <t>Philips Body g...</t>
+  </si>
+  <si>
+    <t>Ego QV Moov Co...</t>
+  </si>
+  <si>
+    <t>Dove Condition...</t>
+  </si>
+  <si>
+    <t>Wella Koleston...</t>
+  </si>
+  <si>
+    <t>Baby Life Gian...</t>
+  </si>
+  <si>
+    <t>Bambi Wet Wipe...</t>
+  </si>
+  <si>
+    <t>Cetaphil Baby ...</t>
+  </si>
+  <si>
+    <t>NestlÃ© Nan Pr...</t>
+  </si>
+  <si>
+    <t>CANPOL Easysta...</t>
+  </si>
+  <si>
+    <t>Pigeon Perista...</t>
+  </si>
+  <si>
+    <t>Primalac No 3 ...</t>
+  </si>
+  <si>
+    <t>Sebamed Baby B...</t>
+  </si>
+  <si>
+    <t>Chicco Plastic...</t>
+  </si>
+  <si>
+    <t>Bambi Premium ...</t>
+  </si>
+  <si>
+    <t>Baby Life Pull...</t>
+  </si>
+  <si>
+    <t>Bambi Jumbo La...</t>
+  </si>
+  <si>
+    <t>Exceeda Baby M...</t>
+  </si>
+  <si>
+    <t>Nuby Natural F...</t>
+  </si>
+  <si>
+    <t>Huggies Extra ...</t>
+  </si>
+  <si>
+    <t>Dicoflor Elle ...</t>
+  </si>
+  <si>
+    <t>Nocilla, Choco...</t>
+  </si>
+  <si>
+    <t>Megatone Syrup...</t>
+  </si>
+  <si>
+    <t>mentos chewing...</t>
+  </si>
+  <si>
+    <t>Lenny&amp;Larry's ...</t>
+  </si>
+  <si>
+    <t>Canderel Choco...</t>
+  </si>
+  <si>
+    <t>Pharmaton Diet...</t>
+  </si>
+  <si>
+    <t>Holista Curcum...</t>
+  </si>
+  <si>
+    <t>Dandifree Anti...</t>
+  </si>
+  <si>
+    <t>Digesta Multi ...</t>
+  </si>
+  <si>
+    <t>Sulomate Omega...</t>
+  </si>
+  <si>
+    <t>Pyridoxin 40 M...</t>
+  </si>
+  <si>
+    <t>Holista Melato...</t>
+  </si>
+  <si>
+    <t>Bakalland BA !...</t>
+  </si>
+  <si>
+    <t>Grenade Carb K...</t>
+  </si>
+  <si>
+    <t>Maybelline Fit...</t>
+  </si>
+  <si>
+    <t>Makeup Revolut...</t>
+  </si>
+  <si>
+    <t>Revlon Classic...</t>
+  </si>
+  <si>
+    <t>Bourjois City ...</t>
+  </si>
+  <si>
+    <t>Catrice Glowdo...</t>
+  </si>
+  <si>
+    <t>Bourjois Radia...</t>
+  </si>
+  <si>
+    <t>Catrice Genera...</t>
+  </si>
+  <si>
+    <t>Rimmel Magnife...</t>
+  </si>
+  <si>
+    <t>Revlon Colorst...</t>
+  </si>
+  <si>
+    <t>Essie Nail Pol...</t>
+  </si>
+  <si>
+    <t>Essence Kajal ...</t>
+  </si>
+  <si>
+    <t>Flormar Water ...</t>
+  </si>
+  <si>
+    <t>Bourjois La La...</t>
+  </si>
+  <si>
+    <t>Laino Lip Care...</t>
+  </si>
+  <si>
+    <t>سالينوز كولد د...</t>
+  </si>
+  <si>
+    <t>شراب بروف معلق...</t>
+  </si>
+  <si>
+    <t>ماء بيبي ماء غ...</t>
+  </si>
+  <si>
+    <t>اكسفورج لعلاج ...</t>
+  </si>
+  <si>
+    <t>ديكلوماكس 50 م...</t>
+  </si>
+  <si>
+    <t>كرومافينا 4 مج...</t>
+  </si>
+  <si>
+    <t>إكسلين شراب ال...</t>
+  </si>
+  <si>
+    <t>فيوسيباكت ب كر...</t>
+  </si>
+  <si>
+    <t>اربافال 320جم ...</t>
+  </si>
+  <si>
+    <t>أقراص مافيبين ...</t>
+  </si>
+  <si>
+    <t>بيتاسيرك24 مجم...</t>
+  </si>
+  <si>
+    <t>فرست ستيب بلاس...</t>
+  </si>
+  <si>
+    <t>كلاسيد اكس 500...</t>
+  </si>
+  <si>
+    <t>بخاخ أمرون C10...</t>
+  </si>
+  <si>
+    <t>ابروفاسك 150/5...</t>
+  </si>
+  <si>
+    <t>ماسك بار غسول ...</t>
+  </si>
+  <si>
+    <t>إيزي كير غسول ...</t>
+  </si>
+  <si>
+    <t>افين ماء ميسيل...</t>
+  </si>
+  <si>
+    <t>إيفيلاين وايت ...</t>
+  </si>
+  <si>
+    <t>بابي جل للعناي...</t>
+  </si>
+  <si>
+    <t>كريستيان لوران...</t>
+  </si>
+  <si>
+    <t>ماسك بار إن جر...</t>
+  </si>
+  <si>
+    <t>سينت أيفيس ماس...</t>
+  </si>
+  <si>
+    <t>كريم ماكسون سو...</t>
+  </si>
+  <si>
+    <t>بيزلين قناع فا...</t>
+  </si>
+  <si>
+    <t>نيڤيا العناية ...</t>
+  </si>
+  <si>
+    <t>رايوس واقي الش...</t>
+  </si>
+  <si>
+    <t>جانسن منظف للو...</t>
+  </si>
+  <si>
+    <t>إنترفيون - فرش...</t>
+  </si>
+  <si>
+    <t>ماوي شامبو بخل...</t>
+  </si>
+  <si>
+    <t>شرائح فيت إيزي...</t>
+  </si>
+  <si>
+    <t>كريم فيت لإزال...</t>
+  </si>
+  <si>
+    <t>أنليفين جل للش...</t>
+  </si>
+  <si>
+    <t>إنترفيون - مشط...</t>
+  </si>
+  <si>
+    <t>ال صالون بليكس...</t>
+  </si>
+  <si>
+    <t>بابي شامبو لتس...</t>
+  </si>
+  <si>
+    <t>هيبربل ماسك ال...</t>
+  </si>
+  <si>
+    <t>بيتر مبرد الأظ...</t>
+  </si>
+  <si>
+    <t>شامبو غارنييه ...</t>
+  </si>
+  <si>
+    <t>فيلبس ماكينة ح...</t>
+  </si>
+  <si>
+    <t>إجو كيوڤي مشط ...</t>
+  </si>
+  <si>
+    <t>بلسم دوڤ روتين...</t>
+  </si>
+  <si>
+    <t>صبغة شغر ويلا ...</t>
+  </si>
+  <si>
+    <t>بيبي لايف حفائ...</t>
+  </si>
+  <si>
+    <t>بامبي مناديل م...</t>
+  </si>
+  <si>
+    <t>غسول وشامبو سي...</t>
+  </si>
+  <si>
+    <t>حليب نستله نان...</t>
+  </si>
+  <si>
+    <t>كانبول بيبي حل...</t>
+  </si>
+  <si>
+    <t>زجاجة رضاعة ال...</t>
+  </si>
+  <si>
+    <t>بريملاك التيما...</t>
+  </si>
+  <si>
+    <t>فقاعات استحمام...</t>
+  </si>
+  <si>
+    <t>شيكو رضاعة بلا...</t>
+  </si>
+  <si>
+    <t>حفائض بامبي صغ...</t>
+  </si>
+  <si>
+    <t>سانيتا بامبي ح...</t>
+  </si>
+  <si>
+    <t>حليب أطفال إكس...</t>
+  </si>
+  <si>
+    <t>نوبي ناتشرال ت...</t>
+  </si>
+  <si>
+    <t>هجيز كلوتات ال...</t>
+  </si>
+  <si>
+    <t>ديكوفلور إل 7 ...</t>
+  </si>
+  <si>
+    <t>ميجاتون شراب 2...</t>
+  </si>
+  <si>
+    <t>علك منتوس توتي...</t>
+  </si>
+  <si>
+    <t>ليني ولاريز كي...</t>
+  </si>
+  <si>
+    <t>كاندريل شوكولا...</t>
+  </si>
+  <si>
+    <t>هوليستا كوركوم...</t>
+  </si>
+  <si>
+    <t>داندي فري شامب...</t>
+  </si>
+  <si>
+    <t>دايجست سيريل 1...</t>
+  </si>
+  <si>
+    <t>سولوميت أوميجا...</t>
+  </si>
+  <si>
+    <t>بيريدوكسين حبو...</t>
+  </si>
+  <si>
+    <t>هوليستا ميلاتو...</t>
+  </si>
+  <si>
+    <t>بي اي شريط الط...</t>
+  </si>
+  <si>
+    <t>جرينيد كارب كي...</t>
+  </si>
+  <si>
+    <t>مايبلين كونسيل...</t>
+  </si>
+  <si>
+    <t>ميك أب ريفوليو...</t>
+  </si>
+  <si>
+    <t>باليت هايلايت ...</t>
+  </si>
+  <si>
+    <t>بورجوا خافي عي...</t>
+  </si>
+  <si>
+    <t>كاتريس أحمر شف...</t>
+  </si>
+  <si>
+    <t>ريمل مكياج 127...</t>
+  </si>
+  <si>
+    <t>ايسي طلاء اظاف...</t>
+  </si>
+  <si>
+    <t>ايسنس قلم كاجا...</t>
+  </si>
+  <si>
+    <t>فلورمار قلم تح...</t>
+  </si>
+  <si>
+    <t>مرطب شفاة بالك...</t>
   </si>
   <si>
     <t>medicine</t>
@@ -601,13 +592,13 @@
     <t>الشعر</t>
   </si>
   <si>
-    <t>الطفولة والأمومة</t>
-  </si>
-  <si>
-    <t>المكملات الغذائية</t>
-  </si>
-  <si>
-    <t>مستحضرات التجميل</t>
+    <t>الطفولة والأمو...</t>
+  </si>
+  <si>
+    <t>المكملات الغذا...</t>
+  </si>
+  <si>
+    <t>مستحضرات التجم...</t>
   </si>
   <si>
     <t>SALINOSE</t>
@@ -670,7 +661,7 @@
     <t>BABE</t>
   </si>
   <si>
-    <t>CHRISTIAN LAURENT</t>
+    <t>CHRISTIAN LAUR...</t>
   </si>
   <si>
     <t>AVALON</t>
@@ -694,7 +685,7 @@
     <t>RAUOS</t>
   </si>
   <si>
-    <t>JANSSEN COSMETICS</t>
+    <t>JANSSEN COSMET...</t>
   </si>
   <si>
     <t>INTERVION</t>
@@ -712,7 +703,7 @@
     <t>IL SALONE</t>
   </si>
   <si>
-    <t>HERBAL ESSENCES</t>
+    <t>HERBAL ESSENCE...</t>
   </si>
   <si>
     <t>BETER</t>
@@ -808,7 +799,7 @@
     <t>MAYBELLINE</t>
   </si>
   <si>
-    <t>MAKEUP REVOLUTION</t>
+    <t>MAKEUP REVOLUT...</t>
   </si>
   <si>
     <t>REVLON</t>
@@ -895,9 +886,6 @@
     <t>بابي</t>
   </si>
   <si>
-    <t>كريستيان لوران</t>
-  </si>
-  <si>
     <t>افالون</t>
   </si>
   <si>
@@ -1618,517 +1606,156 @@
     <t>SAR 7.36</t>
   </si>
   <si>
-    <t>Purified Water, Hydroxypropyl Methylcellulose (micro-gel), Succinic Acid, Disodium Succinate Anhydrous, Pyrrolidone Carboxylic Acid – PCA, Phenylethyl Alcohol, Zinc EDTA, Zinc Acetate Dihydrate, Polysorbate 80, Menthol, Camphor, Eucalyptus Oil and Saccharin Sodium  A micro-gel formula nasal spray that helps to stop the progression of a common cold 20 ml A drug-free nasal spray with a micro-gel formula that reduces the ability of cold viruses to replicate in the nose and helps to stop a cold from progressing  Apply 2-3 sprays per nostril up to 4 times a day. Allow 4 hours between applications, no more than 4 applications in 24 hours. For best results continue to use for 2 days after symptoms subside.  Store below 30°C, away from children.  20ml  Barcode  628509501460</t>
-  </si>
-  <si>
-    <t>Prof Suspension 100 ml which Indicated in dry cough as Expectorant and in case of cough treatment, Treat cold symptoms and Cough suppressant in childhoods older than 1 year for fever reduction and mild to moderate pain relief of cough and cold symptoms.  Barcode  6285147003426</t>
-  </si>
-  <si>
-    <t>Baby Water Gripe Syrup 120ml It is a combination of water and herbs used as a treatment for stomach disorders and colic in children used for colic and bloating in children and newborns. It is also used in relieving colic and digestive discomfort in children and newborns. It is very useful for children where it contains very useful ingredients and effective formula containing a combination of different herbs, including: fennel, ginger, chamomile, licorice, cinnamon and lemon balm is a safe and effective product and does not cause any harm to your child</t>
-  </si>
-  <si>
-    <t>Exforge high blood pressure treatment 10/160 mg Tablet 28pcs is used to treat high blood pressure in adult patients whose blood pressure is already controlled while taking amlodipine, valsartan and hydrochlorothiazide and who may benefit from taking one tablet containing all three substances. Do not take Amlodipine/Valsartan/Hydrochlorothiazide •If you are more than 3 months pregnant. •If you are allergic to amlodipine or to any other calcium channel blockers, valsartan, hydrochlorothiazide, sulphonamide-derived medicines (medicines used to treat chest or urinary infections), or any of the other ingredients of this medicine. If you think you may be allergic, do not take Amlodipine/Valsartan/Hydrochlorothiazide and talk to your doctor. •If you have liver disease, destruction of the small bile ducts within the liver (biliary cirrhosis) leading to the build up of bile in the liver (cholestasis). •If you have severe kidney problems or if you are having dialysis. •If you are unable to produce urine (anuria). •If the level of potassium or sodium in your blood is too low despite treatment to increase the potassium or sodium levels in your blood. •If the level of calcium in your blood is too high despite treatment to reduce the calcium levels in your blood. •If you have gout (uric acid crystals in the joints). •If you have severe low blood pressure (hypotension). •If you have narrowing of the aortic valve or cardiogenic shock. •If you suffer from heart failure after a heart attack. •If you have diabetes or impaired kidney function  Barcode  3711500000830</t>
-  </si>
-  <si>
-    <t>Diclomax 50 mg Tablet 20pcs is a pain-relieving pharmaceutical Pill, which widely used in pain in the back, shoulder, spine, sprains and spasms. It is used to alleviate pain , inflammation and infection in short term in conditions affecting joints.Treating period pain .Diclomax is the best pain relieving  Barcode  6281936051814</t>
-  </si>
-  <si>
-    <t>Some medical and surgical treatments can make you feel sick or be sick (nausea and vomiting).  Ondansetron 4mg/5ml Oral Solution belongs to a group of medicines called anti-emetics, which can stop these effects.  This medicine is used to stop nausea and vomiting after:  Chemotherapy for cancer (in adults and children)  Radiotherapy for cancer (adults only)  an operation (adults only).</t>
-  </si>
-  <si>
-    <t>Exylin Cough Syrup For Adults 125 ml is a syrup used to treat dry cough for adults at night. Contains an antihistamine to relieve bronchial congestion symptoms.  Barcode  6281086000175</t>
-  </si>
-  <si>
-    <t>Fusibact-B Cream works by killing germs (bacteria) that cause skin and soft tissue infections.  Barcode  6281269115320</t>
-  </si>
-  <si>
-    <t>Arbaval 320 Mg 28 Tab is used to treat high blood pressure. Valsartan works by blocking the activity of certain natural substances which tightens the blood vessels. Thus, the blood flows more smoothly, and the heart pumps more efficiently. Hydrochlorothiazide works by prompting the kidneys to pass the unneeded salt and water from the body into the urine. also be used together with other medicines to treat certain conditions as recommended by the doctor. It is used in combination with other Anti-Hypertensive to treat high blood pressure.</t>
-  </si>
-  <si>
-    <t>Mafepain 500 mg Tablet 20 Pcs is Used to soften moderate and mild pain. Muscle pain reliever, Efficient and successful to cure Dental and joint pain. Relieve menstrual pain in the first three days in particular Mafepain Effective in relieving pain.Anti-Inflammatory 500 Mg - 20 Tabs · Mafepain tablet is (NSAID) that used for pain and inflammation  Barcode  6281086000991</t>
-  </si>
-  <si>
-    <t>Betaserc 24 mg Tablet 50pcs is used for: Betahistine dihydrochloride is a medicine that is used for the treatment of Meniere’s disease which is manifested by three different signs; vertigo (dizziness linked with vomiting or nausea), tinnitus (hearing sounds in the absence of external sounds e.g. ear ringing) and hearing loss or reduced hearing ability. It is also used for the relief of vestibular vertigo symptoms (vertigo even when you are not moving).</t>
-  </si>
-  <si>
-    <t>First Step Plaster Pieces Regular 50 Pieces Now you and your children can through it to forget their wounds, gauze, cuts, scrapes and bruises with the help of bandages. Absolutely safe, clean and sterile for your baby's smooth skin and the most cute skin of all kinds. Waterproof bandages that protect your injury from dust and make sure they are comfortable. Removing the First Step plaster dressing is an easy and completely painless process. This product is known for its high efficacy and safety ratio among children, which makes it very stable on the skin and makes it easier for you to take care of an injury. Fix plaster already made for your children to feel better about their inevitable wounds. There are a total of 50 pieces in the package and they come in four different sizes that are suitable for providing first aid to your whole family during an emergency. A bandage from First Step is the most trusted and popular first aid product for all families who love the idea of safety and comfort in one product.. Stops bleeding from cuts, wounds, gauze, scrapes, etc. Completely sterile and safe. Completely waterproof, Prevents water circulation around the wound, It kills all germs, dirt and bacteria, Easy to apply, They are a great addition to first aid kits. Make sure to clean the wound or the affected area with water or disinfectant and gently wipe off any foreign particles such as dust, dirt, grit, etc.. Dry the skin and other areas around the injury with a clean, soft towel or cloth. Apply the tape to the wound without tearing or stretching, and avoiding wrinkling.  Barcode  6981234567887</t>
-  </si>
-  <si>
-    <t>Klacid XL 500 MG 14 Tab  Barcode  8002660016447</t>
-  </si>
-  <si>
-    <t>Omron C102 Total 2-In-1 Nebuliser with Nasal Shower Efficient treatment of diseases of the lower airway like bronchitis, bronchiolite and asthma with symptoms like cough, sore throat or shortness of breath. omoron nebuliserReduces allergic reactions through allergic rinsing. Removes bacteria and viruses to decrease risk of infection  Barcode  4015672111240</t>
-  </si>
-  <si>
-    <t>Aprovasc 150/5 Mg 28 Tab Pharmacodynamic properties of each drug, irbesartan and amlodipine, are in favor of an addition of antihypertensive effects when considered in combination versus alone: both AT1 receptor antagonists and calcium channel blockers lower blood pressure by reducing peripheral resistance, but calcium influx blockade and reduction of angiotensin II vasoconstriction are complementary mechanisms.It is the best product for Hypertension treatment .</t>
-  </si>
-  <si>
-    <t>Masque B.A.R Charcoal Cleanser 300Ml  Barcode  628816004403</t>
-  </si>
-  <si>
-    <t>ez CARE Oily Skin Cleanser is formulated to keep normal to oily skin clean and healthy . It removes surface oils, dirt and makeup without leaving skin tight or overly dry . It rinses clean without leaving any pore-clogging residue . It is gentle for everyday use  Barcode  6285095009259</t>
-  </si>
-  <si>
-    <t>Avene Cleanance Micellar Water 400 ml Its surfactants gently and effectively eliminate impuritiesfrom the skin. Regulates sebum: Glyceryl laurate (patent pending) regulatesthe hyper-production of sebum. Purifies: cetrimonium bromide purifies the skin. Soothing: Rich in Avène Thermal Spring Water, it containsall its soothing and softening properties Product Benefits: Deep cleansing action purifies without stripping the skin Soap-free How to Use: Apply to face, eyes and/or body for make-up removing, skin moisturizing&amp; gentle cleansing. No-rinse  Barcode  3282770207811</t>
-  </si>
-  <si>
-    <t>White Prestige 4D Intensive Whitening Day Cream 50Ml  Benefits  Lightens the skin, evens its tone, prevents excessive pigmentation and globally improves skin condition.  Barcode  5907609345714  How to use  every morning apply the cream onto the cleansed facial skin, avoiding eye area. Gently rub the cream into the skin.</t>
-  </si>
-  <si>
-    <t>Babe Pediatric Intimate Hygiene Gel 200 ml is an extra soft gel that helps protect the natural pH level of the infant's intimate area. The Intimate Hygiene Gel formulated with Alpha-Glucan Oligosaccharides this gel helps the flora development, protecting from possible infections. It contains prebiotic and dermo protective actives that help prevent possible soreness and irritations. It prevents infections both in girls (vulvovaginitis) and boys (balanitis). It can be used daily without irritating. Additionally, it softly cleans any impurities that may harm the skin's integrity while respects the hydration level of the skin. Pediatrically and gynecologically, &amp; Dermatologically tested. For daily use. Apply on the wet zone to treat &amp; rinse generously with water.  Barcode  8437000945901</t>
-  </si>
-  <si>
-    <t>EXCLUSIVE MICELLAR LOTION WITH ROSE WATER AND ROYAL PEONY. Professional product inspired by French beauty ritual, based on YOUTH BLOSSOM INFUSION™ technology, allows to remove even waterproof face, eye and lip make-up without the need for rubbing the skin  Innovative formula of the lotion, enriched with BAKUCHIOL, i.e. plant retinol, provides the skin with powerful dose of nourishment, e_x005F_x005f_x001e_ectively preventing occurrence of signs of aging. HONEY and HYA_x005F_x005f_x0002_LURONIC ACID moisturize the skin, enhance its tone and add radiance  apply onto a cotton pad and wipe the face, eyes and lips. Use on a daily basis  Aqua (Water), PEG-6 Caprylic/Capric Glycerides, Propanediol, Polyglyceryl-4 Caprate, Polyglyceryl-6 Caprylate, Rosa Centifolia Flower Water, Paeonia O_x005F_x005f_x001f_cinalis Flower Extract, Mel Extract, Potassium Olivoyl PCA, Sodium PCA, Sodium Hyaluronate, Betaine, Levulinic Acid, Bakuchiol, Colloidal Gold, Leuconostoc/Radish Root Ferment Filtrate, Hydroxyacetophenone, Phenoxyethanol, Ethylhexylglycerin, Potassium Sorbate, Sodium Benzoate, Sodium Levulinate, Cetrimonium Bromide, Glycerin, Propylene Glycol, Parfum (Fragrance), Tetrasodium Glutamate Diacetate, Potassium Chloride, Citric Acid, Alpha-Isomethyl Ionone, Benzyl Salicylate, Hydroxycitronellal</t>
-  </si>
-  <si>
-    <t>avaloncare Bio-cellulose Anti-aging Mask provides a second skin effect that perfectly fits the face shape. It is formulated from anti-time active ingredients that help protect against premature signs of aging and preserve the skin youth, so it stays fresh and toned. Blueberry extract is rich in vitamin C and flavonoids. These two antioxidants help the skin to neutralize free radicals and reduce the early signs of aging. Fucogel® forms a film on the skin surface to maintain its hydration in addition to its stimulating and toning effect. PhytoCellTec™ is a preparation of apple stem cells from a rare Swiss apple species (Uttwiler Spätlauber). This active ingredient reactivates the functions of the original skin stem cells  Barcode  3490720021824</t>
-  </si>
-  <si>
-    <t>Masque B.A.R In.Gredients Mango Sleeping Mask  Barcode  628816005202</t>
-  </si>
-  <si>
-    <t>Maxon Cream Soft White Cream 50 ml is a gentle whitening cream that is used for lighting imperfect faces , darkened spots and sensitive body areas. It minimizes your skin's appearances from scratches, acne scars and dark spots. Enhances natural ingredients,works to unify the color of the skin and cleans it from impurities and dust and also acts as a peeler for dead skin; it is an effective medical product safe to use.  Barcode  1094922230682</t>
-  </si>
-  <si>
-    <t>Beesline Express White Sapphire luxury 12 Pcs A beauty treatment that saturates the skin with a generous amount of brightening &amp; lifting active ingredients, it rejuvenates the skin &amp; provides a feeling of purity &amp; sophistication. Restructures &amp; plumps the face providing a lifted &amp; youthful look. Lightens the complexion effectively making the skin tone more even .beesline is the best product for skin care  Barcode  5281018020586</t>
-  </si>
-  <si>
-    <t>Sunscreen Cream  Its protection factor is reinforced &amp; optimized, brings comfort to the skin  Apply daily to the face 30 mins before each sun exposure, regularly renew the application  40ML  Barcode  3760095253633</t>
-  </si>
-  <si>
-    <t>When you're feeling discomfort because of acne, NIVEA Clear Up Daily Face Scrub is here to help – fast. This face scrub deeply cleanses your skin while helping clear breakouts from day 5. You can expect visible skin improvements in just 7 days. Formulated with pure maris sea salt, salicylic acid and hyaluronic acid, carnitine and magnolia extract, these powerful beneficial ingredients get to work on your skin and rebalance it in 5 different ways. This treatment: 1. controls oiliness, 2. unclogs pores, 3. balances the skin exfoliation cycle, 4. helps reduce acne redness and 5. gives your skin a wonderful hydrated feeling. Even better, you can rest easy knowing that this NIVEA product is dermatologically approved for all skin types. It is free from SLS, parabens, hydroquinone and petroleum distillate, for your peace of mind. Super easy to use, simply massage on your wet face in upward circles, then rinse off, avoiding the eye area. Use once a day. For a complete anti-acne skincare regimen, combine NIVEA Clear Up Daily Face Scrub with the rest of the NIVEA Clear Up range, including our Acne Spot Treatment, Deep Face Pore Cleanser, and Daily Face Serum. As one of the leading companies in the field of skin care – with more than 130 years of experience – our products always cater to your needs. You can learn more about skincare, including tips, tricks and helpful articles, on our website.  • Specially designed for acne-prone skin, this cleansing scrub visibly improves skin within 7 days  • NIVEA Clear Up Daily Scrub for Acne Control rebalances skin while exfoiliating deeply  • This face scrub helps reduce acne, controls oiliness, unclogs pores and gives a hydrated feeling  • The unique formula of sea salt, salicylic and hyaluronic acids &amp; magnolia extract gets to work fast  • This cleanser is free from SLS, parabens, hydroquinone &amp; petroleum distillate for your peace of mind  1. Wet face with water before applying the face scrub. 2. Gently massage avoiding the eye and lip area. 3. Rinse off with water.  For external use only. Avoid direct contact with eyes.  75ml  Barcode  4005900916587</t>
-  </si>
-  <si>
-    <t>Japanase Sunscreen Spray with amazing Soap Fragrance that could be used above Make Up, for Face-Body-Hair &amp; Kids, Water proof But Easy to be removed by Soaps or Cleansers, For Sensitive and All Skin Types.  Protection from UV Rays &amp; Day Light, Easy to use, Water-Proof, For Face, Body &amp; Hair, For kids &amp; Adults and All Skin Types.  Spray for Face, Body &amp; Hair few seconds before exposure to sun rays.  Barcode  4533213669598</t>
-  </si>
-  <si>
-    <t>Rich cleansing lotion for demanding skin. With mulberry tree extract and active washing substances.  White mulberry tree root extract  • Fatty alcohol ethoxylates  غسول للوجه مخصص للتصبغات  غسول للوجه مخصص للتصبغات  Barcode  4040943005324</t>
-  </si>
-  <si>
-    <t>INTERVION - Hairbrush, oval, pastel spring collection  Barcode  5902704986978</t>
-  </si>
-  <si>
-    <t>Maui Moist Nourish &amp; Moist+ Coconut Milk Shampo 385ml  Barcode  22796170514</t>
-  </si>
-  <si>
-    <t>Veet Easy Grip Ready-to-Use Wax Strips For Normal Skin 20 Strips are formulated specially with Shea Butter, known for its humidifying properties and Berry fragrances that complement normal skin. The skin and smoothness that lasts four weeks can be exfoliated immediately with Veet Wax Strips. Also work on short hair and you can get less, more fine and more smooth hair that grows back with daily uses.  Barcode  5000146055853</t>
-  </si>
-  <si>
-    <t>Veet Sensitive Skin Hair Removal Cream with Aloe Vera and Vitamin E 100 ml is Specially developed with aloe vera and vitamin E, it helps to prevent embarrassing rashes, lumps and bumps. It works on very short hairs for smooth skin, which lasts up to twice as longer as shaving with your regular razor. With an ideal spatula tha works closest to the skin to ensure hair is extracted softly and easily, rendering the skin smooth. The cream weakens your hair, so a spatula slide is all it takes to make your skin smooth. Take advantage of the silk smooth, hydrated skin for 24 hours  Barcode  5000146980353</t>
-  </si>
-  <si>
-    <t>Firm Strenght Hair Gel  Massage into wet or dry hair then style  Barcode  5055028321540</t>
-  </si>
-  <si>
-    <t>INTERVION -Glass-like comb, wide  Barcode  5902704998490</t>
-  </si>
-  <si>
-    <t>Mask with PLEX REBUILDER TECHNOLOGY that preserves the hair fiber beauty, giving it a healthy appearance, with an action both inside and outside the hair.  Restores the broken bonds between the fibres and restructures the hair’s structure up to 93% less broken hair.  Inside the hair, it reconnects, restructures, and strengthens the internal hair bonds. It also protects hair fiber and reduces broken hair.  Outside the hair, it seals the cuticles, restoring damaged and compromised hair by repairing from the inside out.  Repairs all types of hair damage from chemical hair dye, bleaching, coloring, environmental, and overprocessing.  Brings hair back to life, Revitalizes and hydrates the hair. It provides deep nourishment and makes hair soft, silky and shiny.  Barcode  8022297115559  How to use  Apply on the lengths and ends. Massage and leave in for 5 minutes. Rinse thoroughly.</t>
-  </si>
-  <si>
-    <t>Babe Anti-Hair Loss Shampoo 250 Mlhas 3 different actions, it stimulates the phase of hair growth, regulates the excess of sebum and activates capillary circulation, to help prevent hair loss since it is especially indicated for cases of androgenetic alopecia. It is the best product for hair care .  Barcode  8437000945932</t>
-  </si>
-  <si>
-    <t>Hair mask with Aloe and Avocado for Curly Hair  Barcode  8001090326430</t>
-  </si>
-  <si>
-    <t>BETER Ergnomic Pedicure File Fibreglass Both sides allow you to cut, shape and buff the fingernails. File your nails following their natural shape and always file in the same direction.It is a perfect accessory to shorten, shaping and polishing your nails. Lima following the natural shape of your nails and always in the same direction. Directions of Use: File your nails following their natural shape and always file in the same direction.  Barcode  8412122081553</t>
-  </si>
-  <si>
-    <t>Garnier Ultra Doux Avocado Oil &amp; Shea Butter Shampoo 400ml is a nutritious blend of Avocado Oil &amp; Shea Butter to Nourish and even soft the driest, most frizzy hair.  Barcode  3600541177741</t>
-  </si>
-  <si>
-    <t>ME Bodygroom with foil shaver, 50 min runtime, 8h direct charge, 3mm bi-directional trimming comb, black color, closed box  Barcode  8710103848073</t>
-  </si>
-  <si>
-    <t>Ego QV Moov Comb For Lice Helps to easily detect and remove head lice and eggs. MOOV Head Lice Removal Comb helps to easily detect and remove head lice and eggs. Built with strong steel and precisely aligned teeth, the MOOV Head Lice Removal Comb helps catch lice and eggs while the rounded tips and angled handle make it comfortable to hold and gentle on scalps. Proudly Australian made and owned.  Barcode  9314839016608</t>
-  </si>
-  <si>
-    <t>Dove Detox Rituals inspired by Japanese rituals of using blends of matcha and rice milk. The product cleanses hair of everyday pollutants. Nurturing ingredients known for their detoxifying and caring properties.  Matcha•Rice Milk•Purifying hair•Cleansing hair••  Pour a coin size in your palm, take a small amount with your fingers. And gently massage on your scalp.spreed evenly on your Hair. For maximum results, use the product with the Shampoo and Conditioner.  Barcode  6281006505674</t>
-  </si>
-  <si>
-    <t>Wella Koleston Color Maxi Light Ash Blonde No 304/0 provides hair intensive color and full of brilliance specialist in oil substitution. Simple to use without dripping. It completely and durablely protects even the most resistant gray hair. It gives your hair a dazzling color with strong brilliance.  Barcode  21124549006</t>
-  </si>
-  <si>
-    <t>Medical Belt helps Babies for early walking- 12 Hour Dryness - Vitamin E Reduce Incisdence of Rush  Barcode  6253005862775</t>
-  </si>
-  <si>
-    <t>Bambi Wet Wipes Chamomil (Lotion) 4 X (2+1 Free) X 64 Bambi every day clean wipes moisturize and treats baby's dry skin, especially in inflamed and sensitive areas . Use: Sanita Bambi everyday clean wipes are rich in chamomile with anti-inflammatory properties to nourish and protect sensitive and dry skin. It also features an advanced formula rich in special protective cream with aloe vera to nourish and moisturize the baby's skin after replacement.It is the best baby wipes ever .  Barcode  5281001941874</t>
-  </si>
-  <si>
-    <t>Cetaphil Baby Gentle Wash and Shampoo 300ml Designed to protect your baby's delicate skin. With its signature, allergic formula, it cleans the skin and leaves it soft and refreshed. Cedarville Baby Shampoo contains gentle ingredients that help clean hair and skin while supporting the natural development of pH for healthy skin such as glycerin and panthenol. They are the essential compounds for strengthening and strengthening the skin barrier. Suitable for newborns and children up to the age of three years as it is suitable for dry, regular and sensitive scalp.  Barcode  7613035392878</t>
-  </si>
-  <si>
-    <t>Nestle Nan Pro 3 Follow-Up Formula Powder 400 gm is a formula of spray-dried Follow-Up for older children after 12 months. This formula helps the natural brain growth of your child, Includes calcium, vitamins A, C, D, Iron and Zinc. It Comes in Bag-In-Box size to ensure improved protection, hygiene and comfort.Nestle is the best baby milk ever.  Barcode  7613287484246</t>
-  </si>
-  <si>
-    <t>CANPOL Easystart wide neck silicone teat - mini (1 pc) For children's canpool with a spherical nipple made of the best high quality silicone materials, with a frame equipped with a vent to prevent skin infections, a cover to keep them from contamination with microbes, safe on the child is free of bisphenol characterized by a distinctive and elegant cover to preserve it and a wide neck spherical nipple of high quality silicon, allowing your child a better experience safer and does not cause him to tire  Barcode  5903407217192</t>
-  </si>
-  <si>
-    <t>Pigeon Peristaltic Nursing Bottle Plastic KPP White Hand 240 are feeding bottle made of durable plastic of high quality. Pigeon bottles have streamlined forms make holding and keeping mothers pleasant.  Barcode  4902508260084</t>
-  </si>
-  <si>
-    <t>Primalac No 3 Ultima Family Pack 3X400g  Barcode  7613200201530</t>
-  </si>
-  <si>
-    <t>Sebamed Baby Bubble Bath 200 ML is Sebamed Baby bubble bath. Sebamed Baby Bubble Bath is skin bath, moisturizing bath and baby bath free of soap and slightly cleanses the sensitive skin of your baby while Sebamed bath making the time of the bath more enjoyable with no tears properities.  Barcode  4103040151506</t>
-  </si>
-  <si>
-    <t>Chicco Plastic Bottle Boy 150 Ml The 150ml capacity is suitable for newborns. Easy to clean and very practical for mothers. The bottle features attractive designs matching Chico pacifiers. The unique shape and size of the bottle, together with the anti-colic silicone valve, create the best conditions for a safe bottle. BENEFITS Protects your baby from colic, vomiting, and irritation. Dirt-resistant cover - for maximum protection and health. Tit-like, interchangeable nipple. Safe closure to prevent leakage. Wide opening - to give filling speed and easy cleaning  Barcode  8033828710693</t>
-  </si>
-  <si>
-    <t>Bambi Premium Care Diapers size small 136 Diapers  136 Pcs  Barcode  6281017821220</t>
-  </si>
-  <si>
-    <t>Dryness 12 Hours- Vitamin E Reduce Incisdence of Rush  Barcode  6253005861310</t>
-  </si>
-  <si>
-    <t>Bambi Jumbo Large 3 X 62 Better fitting to the body shape of the child. Absorbs more liquid and prevents leakage. Soft cotton feel. Decorated with colors and graphics umbilical cord cutout to protect the baby's navel. A thinner nappy with high absorbency. INSTRUCTIONS FOR USE/ HOW TO USE Lay your baby on a flat and soft surface. Remove the diaper by lifting the adhesive tabs, and then fold the adhesive strips back onto themselves. Using Bambi baby wipe, clean the genital area by wiping from front to back. Place a clean diaper under your baby. Secure the clean diaper by fastening the adhesive strips from the back of the diaper to the front pane. Finally, place your baby in a secure place so you can throw away the dirty diaper and wash your own hands.Bambi Diapers is the best baby diapers ever .  Barcode  6281017353080</t>
-  </si>
-  <si>
-    <t>Exceeda Baby Milk Growing Up Formula For Children 850 gm is an extra-nutrient growth formula ideal for children from 1 to 10 years of age. Contain all the essential vitamins and minerals for the health of your infant. Simple proteins to digest. This brings the profile of essential amino acids closer to breast milk. It's a special iron-fortified solution with a modified protein content.  Barcode  3575410570261</t>
-  </si>
-  <si>
-    <t>Our patented Natural Flex™ Pacifiers feature a naturally shaped baglet that flexes, stretches and moves like a mother’s nipple. This flexing movement helps to promote the natural sucking action of your baby. The Natural Flex™ Pacifiers also feature teething nubs around the base of the baglet, which massage and soothe sore gums. They are available in orthodontic, cherry and classic oval shapes so you are guaranteed to find a pacifier that is safe to use and suits your baby’s preference. Two pack assortments are also available.  BPA free  Barcode  48526675371</t>
-  </si>
-  <si>
-    <t>Huggies Extra Care Culottes Pants are the ultimate solution for quick and convenient diaper changes for your toddler!  Designed with you and your baby in mind, these baby diaper pants are incredibly easy to put on and take off. Experience quick and hassle-free dressing and undressing and simply dispose of the culottes pants without any fuss.  Not only are these premium pants incredibly convenient, but they also provide unbeatable efficiency and comfort for your active baby. With double leak guards, they offer extra protection against leaks, giving you peace of mind, day and night. The dry touch layer ensures that your toddler stays dry and comfortable. Plus, the wetness indicator changes color to let you know when it's time for a change.  We understand the importance of your baby's joy and comfort, which is why our pant style diapers feature cloud soft comfort. The gentle tummy fit ensures a snug and secure fit to prevent leakage, without causing any discomfort.  Safety is our top priority, which is why these culotte diapers are free from perfumes, latex, and elemental chlorine. You can rest assured that these pants are gentle on your child's delicate skin, minimizing the risk of irritation and allergies.  Huggies Extra Care Culottes Pants are easy to pack and are portable. They make an essential addition to your baby bag or baby care kit.  At Huggies, since 1968, we've believed in keeping your baby's skin clean, healthy, and soft. Our path-breaking innovations in infant care have helped generations of toddlers stay clean and healthy. With the Huggies Extra Care Culottes Pants, you can rest assured knowing you've chosen the best for your little one.  Discover our full range of Huggies baby products designed to support every stage of your child’s development. From baby wipes, to baby diapers in all sizes, and even swim nappies for little swimmers, Huggies has everything you need. It is the perfect choice for your baby when it comes to comfortable protection you can trust.  Benefits  • EASY AND CONVENIENT: Huggies Extra Care Culottes Pants are incredibly easy to put on and off. They allow for quick and hassle-free dressing and undressing for your active baby  • SKIN CARE: Huggies Extra Care Culottes Pants prioritize skin care, offering gentle protection and ensuring your baby's skin stays healthy  • DRYNESS AND COMFORT: With double leak guards and a dry touch layer, these pant style diapers in size 3 keep your baby dry, comfortable, and protected night and day  • WETNESS INDICATOR: Huggies Extra Care Culottes Pants feature a wetness indicator that signals when it is time for a change  • FREE FROM NASTIES: Huggies Extra Care Culottes Pants are free from perfumes, latex, and elemental chlorine, minimizing the risk of irritation and allergies  • DISCOVER OUR OTHER PRODUCTS: Love the Huggies Extra Care Culottes Pants? Discover our full range of products including baby wipes and swim pants, specially designed for your growing baby  Barcode  5029053576640</t>
-  </si>
-  <si>
-    <t>Nocilla, Chocolate spread 0% Gluten&amp; Palm 12x190G  Barcode  8410014470300</t>
-  </si>
-  <si>
-    <t>Immune booster is the first line of defense against viruses  A drink supplement containing fish oil, vitamins and minerals, flavored with mango and artificial peaches and sweeteners  Barcode  6286127000091</t>
-  </si>
-  <si>
-    <t>mentos chewing gum white tutti frutti 38 pcs  Barcode  8935001706724</t>
-  </si>
-  <si>
-    <t>Lenny&amp;Larry's Keto Cookie- Peanut Butter  Barcode  787692512003</t>
-  </si>
-  <si>
-    <t>Ingredients: Milk chocolate 78% [sweetener (maltitol E965-i), inulin (fibre), milk powder (cow's milk), cocoa butter, cocoa mass, concentrated butter (cow's milk), emulsifier (soy lecithin E322), aspartame (non-nutritive sweetener E951), flavouring (vanilla)], almonds [Tree nuts (21%)], glazing agent (E414, E904). Cocoa solids: 32% minimum. Milk solid: 23% minimum. (May contain peanuts and other tree nuts)  Barcode  7630486400259</t>
-  </si>
-  <si>
-    <t>Natural anti-inflammatory  1 gummy per day for chronic pain and joint pain  not suitable for patient administer oral anti- coagulants.  Barcode  620554009962</t>
-  </si>
-  <si>
-    <t>Dandifree Anti Dandruff Shampoo 120ml 8490  Barcode  6287002338490</t>
-  </si>
-  <si>
-    <t>Digesta Multi Cereals 167g  Barcode  8410014421982</t>
-  </si>
-  <si>
-    <t>Sulomate Omega 1000 Mg 90 Cap  Elevate your health and well-being with Sulomate Omega 1000 Mg. Our premium omega-3 dietary supplement is a powerhouse of essential fatty acids, meticulously crafted to support your overall vitality. Dive into the world of wellness and experience the transformative benefits of Sulomate Omega.  Sulomate Omega 1000 Mg 90 Cap Key Features:  High-Potency Omega-3: Each capsule packs 1000 mg of omega-3 fatty acids, including EPA and DHA, known for their various health advantages.  Heart Health: Omega-3s are renowned for promoting cardiovascular well-being, and assisting in maintaining healthy cholesterol levels and blood pressure.  Brain Function: DHA, a key component of omega-3s, supports cognitive function, enhancing mental clarity and focus.  Joint Comfort: Omega-3s possess natural anti-inflammatory properties, making them an ideal choice for supporting joint health.  90 Capsules: Each bottle of Sulomate Omega contains 90 capsules, ensuring a long-lasting supply for your daily wellness routine.  Directions for Use:  Take one Sulomate Omega 1000 Mg capsule daily with a meal and a glass of water. Omega-3s are best absorbed when consumed with food, so make it a part of your daily regimen. Consistency is key in experiencing the full range of benefits this supplement has to offer.  Warnings and Precautions:  Do not exceed the recommended dosage.  Keep out of reach of children.  If you are pregnant, nursing, or have a known medical condition, consult with a healthcare professional before use.  Store in a cool, dry place, away from direct sunlight.  Sulomate Omega 1000 Mg is your gateway to a healthier, more vibrant life. Packed with high-potency omega-3s, heart, brain, and joint support, these capsules offer a comprehensive solution for overall well-being. With 90 capsules in each bottle, you'll have a long-lasting supply to support your health journey. Trust in the power of omega-3 fatty acids to make a positive impact on your cardiovascular health, mental clarity, and joint comfort. Seize the opportunity to prioritize your well-being and embrace a healthier, more vital you with Sulomate Omega.  Barcode  9332986002169</t>
-  </si>
-  <si>
-    <t>Pyridoxin 40 MG 20 Tab  Barcode  6291100082216</t>
-  </si>
-  <si>
-    <t>Each gummy contains Melatonin ( non -animal source )…. 1Mg  Natural supplement for sleep disturbance  2 Gummies 30 minutes before bed time  Melatonin contributes to reducing the time spent for sleeping, and contributes to reducing the symptoms of fatigue after traveling due to jet lag.  Barcode  62055400960</t>
-  </si>
-  <si>
-    <t>Bakalland BA ! Energy Bar: 5 Forest Fruits 40g  Barcode  5900749624961</t>
-  </si>
-  <si>
-    <t>Grenade Carb Killa High Protein Shake- Fudge Brownie  Barcode  5060221203630</t>
-  </si>
-  <si>
-    <t>Makeup Revolution Iconic MatPr  Barcode  5029066075734</t>
-  </si>
-  <si>
-    <t>Revlon Classic Super Lustrous Gloss Pink Pop 235  Barcode  309973064157</t>
-  </si>
-  <si>
-    <t>Bourjois City Radiance Foundation Brightening Effect 01  Barcode  3052503563107</t>
-  </si>
-  <si>
-    <t>Catrice Glowdoscope Highlighter Palette 010  Barcode  4059729028853</t>
-  </si>
-  <si>
-    <t>Bourjois Radiance Reveal Concealer 01 Ivory Bourjois Corr Radiance Reveal 001BOURJOIS PARIS Features &amp; details Correction, radiance, skincare. It conceals imperfections, dark circles and puffiness for a fresh &amp; radiant look. It visibly smoothes away wrinkles and fine lines &amp; hydrates the under eye area for up to 24 hours. A instant skincare action! A melting texture for a fresh feel.  Barcode  3052503650128</t>
-  </si>
-  <si>
-    <t>Catrice Generation Matt Comfortable Liquid Lipstick 100 Ten liquid lipsticks with a velvety matt finish in high-coverage colours, enriched with jojoba oil for a soft feeling on the lips. The range comes in eight rosewood and nude shades as well as two metallic shades. Beauty Tip The trend towards matt lips remains unbroken! Here's an important beauty tip to make the matt look particularly beautiful: treat the lips to a peeling beforehand and moisturise them with a moisturising lip balm. This small care session prevents dry lips and skin flakes from standing out unintentionally. Instead, the lips look smooth and velvety. A great advantage of the Matt Comfortable Liquid Lipsticks Generation is that the lipsticks are enriched with jojoba oil, which continuously moisturises the lips and prevents a taut feeling.  Barcode  4059729032270</t>
-  </si>
-  <si>
-    <t>Rimmel Stay Matte Liquid Lip Colour - 709 Strapless  Barcode  3614221693414</t>
-  </si>
-  <si>
-    <t>Revlon Colorstay 2-In-1 Angled Kajal - 102 Fig  Barcode  309978358022</t>
-  </si>
-  <si>
-    <t>Essie Nail Polish Gel Couture DRESS CALL 180 13,5 ml There is no doubt that the Essie nail polishes are among the best in the world, and that is a very special reason. The well-defined structure, the wide color palette and the good balance between the color of the lacquer and the gloss, each help place Essie among the top of the world's nail polish manufacturers. This is a quick-drying and long-lasting gel-like nail polish that dries instantly and does not use a UV lamp. It has a shelf life of up to 14 days! Gel Couture nail polish shines beautifully, and there are countless shades to be used with a specially formulated topcoat. The colors are easy to put in a 2-step system and are super-slim to remove again.It is the best product for nail care .  Barcode  884486303806</t>
-  </si>
-  <si>
-    <t>Essence Kajal Pencil 25 Feel The Mari-Time 1g is ideal to line and define your eyes. Due to its formulation enriched with moisturizing ingredients, this pencil is easy to blend. Not to mention that it is also smooth and, consequently, very comfortable to wear. Therefore, it is great for your daily creations! Indeed, it will be one of your best allies in achieving unique make-up styles that match your personality. Regardless of the mood you’re in, essence Kajal Pencil if there is one for you. Either you’re going for a more classic look or want to create a more trendy effect, this pencil has you covered. Moreover, it is long-lasting and easy to use.  Barcode  4250587772050</t>
-  </si>
-  <si>
-    <t>Flormar Water Proof EYELINER PENCIL 113  Barcode  4251903301398</t>
-  </si>
-  <si>
-    <t>Bourjois La Laque Gel 13 Reddy For Love Nail Enamel 10ml  Barcode  3052503301334</t>
-  </si>
-  <si>
-    <t>Laino Lip Care Blackcurrant  Barcode  3518646028359</t>
-  </si>
-  <si>
-    <t>Revlon Classic Core Nail Enamel Hypnotic 450  Barcode  309978743057</t>
-  </si>
-  <si>
-    <t>ماء نقي، هيدروكسي بروبيل ميثيل سيللوز، حمض السكسينيك، سكسينات ثنائي الصوديوم اللامائي، حمض البيرروليدون كاربوكسيليك، كحول فينيل الإيثيل، زنك إيدتا، أسيتات الزنك ثنائي الهيدرات، بوليسوربات 80 ، منثول، كافور، زيت الأوكالبتوس، سكرين الصوديوم.  بخاخ أنفي بتركيبة جل متطور تساعد على الحد تطور أعراض البرد بخاخ أنفي خالي من المواد الفعالة بتركيبة جل متطورة تمنع عمل الفيروس وتثبطه، وتساعد الجسم في التخلص منه بشكل طبيعي، فيقلل من خطر الإصابة الأولية بنزلات البرد قبل أن تصل أعراض البرد إلى ذروتها.  الجرعة الاعتيادية هي 2- 3 بخات في كل فتحة أنف 4 مرات يوميًّا. يجب أن يكون بين الجرعة والأخرى 4 ساعات، لا يستخدم أكثر من 4 مرات خلال 24 ساعة. لنتيجة مثالية استمر في استخدام سالينوز كولد ديفينس لمدة يومين بعد أن تهدأ أعراض البرد.  يخزن في درجة حرارة أقل من 30 درجة مئوية ، بعيدا عن الأطفال.  20ml  الباركود  628509501460</t>
-  </si>
-  <si>
-    <t>بروف شراب معلق 100 مل يوصف للأطفال الأكبر من سنة علاج البرد ومسكن للصداع, وعلاج الحمي, ومسكن الم شراب بروف معلق بروف للاطفال لتقليل الحمى وتسكين الآلام الخفيفة إلى المتوسطة الناتجة عن الاصابة بنزلات البرد. شراب بروف مناسب للاطفال من بعد عام ولا يسبب الحساسية ولا يسبب النعاس  الباركود  6285147003426</t>
-  </si>
-  <si>
-    <t>ماء بيبي ماء غريب هو عباره عن اعشاب . يستخدم فى تهدئه مغص الاطفال. يستخدم صباحا ومساء من 2 الى 5مل .</t>
-  </si>
-  <si>
-    <t>دواء اكسفورج يتكون العلاج من أملوديبين الذي يعمل من خلال تثبيط دخول أيون الكالسيوم مما يؤدي الى استرخاء خلايا العضلات وهذا يقلل من الضغط داخل الأوعية الدموية، ويتكون ايضاً من فالسارتان وهو نوع من الأدوية تسمى مثبطات مستقبلات الأنجيوتنسين 2 وبالتالي تمنع إطلاق الألدوستيرون الذي يسبب امتصاص الماء والصوديوم وارتفاع ضغط الدم و بالتالي هذا الدواء يستخدم لعلاج ارتفاع ضغط الدم.  يستخدم  اكسفورج في علاج ارتفاع ضغط الدم.  يمنع استخدامه في الحالات التالية :  المرضى الذين أظهروا فرط الحساسية للاميلودبين أو فالسارتان أو لأي مكون آخر من مكونات العلاج.  الحمل في الثلث الثاني و الثالث من الحمل .  انْقِطاعُ البَول.  الأعراض الجانبية الشائعة لهذا الدواء :  الدوخة.  أعراض الرشح مثل انسداد الأنف والعطس.  التهاب الحلق.  إمكانية حدوث انخفاض ضغط الدم المفرط نادرة، ويجب الحذر إذا حصل نفاد لحجم السوائل والصوديوم، فيجب بدأ العلاج بحذر في حال مرضى قُصُورُ القلْب واحْتِشاءٌ حدِيْث أو الذين يخضعون لجِراحة او غسيل الكلى (dialysis).  قد يحدث ذبْحة او سكتة قلبية حادة بعد بدء أو زيادة جرعة الاميلودبين، خاصة مع مرَضُ الشِّرْيانُ التَّاجِيُّ الانسدادي الخطير.  يستخدم بحذر للمرضى الذين يعتمد عمل الكلى لديهم على مجموعة رِيِنِين الأَنْجِيوتَنْسين مثل مرضى تضيق الشريان الكلوي، ومرض الكلى المزمن وفشل القلب الاحتقاني وفقدان السوائل.  الباركود  3711500000830</t>
-  </si>
-  <si>
-    <t>ديكلوفيناك الصوديوم  20 قرص  الباركود  6281936051814</t>
-  </si>
-  <si>
-    <t>قد تجعلك بعض العلاجات الطبية والجراحية تشعر بالمرض أو المرض (الغثيان والقيء).  ينتمي Ondansetron 4mg / 5ml Oral Solution إلى مجموعة من الأدوية تسمى مضادات القيء ، والتي يمكنها إيقاف هذه التأثيرات.  يستخدم هذا الدواء لوقف الغثيان والقيء بعد:  العلاج الكيميائي للسرطان (عند البالغين والأطفال)  العلاج الإشعاعي للسرطان (للبالغين فقط)  العمليات الجراحية (للبالغين فقط).</t>
-  </si>
-  <si>
-    <t>إكسلين شراب البالغين للسعال 100 مل يستخدم لعلاج السعال الجاف للبالغين في الليل. يحتوي على مضادات الهيستامين لتخفيف أعراض احتقان الشعب الهوائية.  الباركود  6281086000175</t>
-  </si>
-  <si>
-    <t>فيوسيباكت ب كريم يستخدم فى علاج الحكة وحالات تهيج الجلد. حالات حساسية الجلد والإكزيما. علاج أعراض الحساسية ضد الأطعمة والعقاقير. حالات الحساسية التي تصيب الحزء العلوي من الجهاز التنفسي. يقلل من التورم المصاحب للحساسية  الباركود  6281269115320</t>
-  </si>
-  <si>
-    <t>اربافال 320جم 28 قرص يحتوى على مادة فالسارتان وهى مادة تعمل على تثبيط مستقبلات الأنجيوتنسين 2. حيث تعمل مادة الأنجيوتنسين وهى مادة موجودة بالجسم على تحفيز إنقباض الأوعية الدموية وبالتالى يرتفع ضغط الدم، وبتثبيط تلك المادة ينخفض ضغط الدم مباشرة. يستخدم ل علاج الضغط المرتفع. - علاج حالات ضعف وقصور عضلة القلب. - يعد من الخيارات الهامة و الآمنة لعلاج الضغط المرتفع عند مرضى الكلى، مرضى السكر ومرضى ضعف أو فشل عضلة القلب.يعتبر افضل منتج ل علاج ارتفاع ضغط الدم</t>
-  </si>
-  <si>
-    <t>دواء مافيبين 500 ملجم هو حمض الميفيناميك والذي ينتمي إلى مجموعة الأدوية التي تسمى مضادات الالتهاب غير الستيرويدية، والتي تعمل عمل إنزيم (COX2، COX1) والمسؤول عن تصنيع مواد مسببة للالتهاب والألم كما يعمل العلاج كمضاد للالتهاب، أيضاً تسكين الألم وخفض الحرارة.  يعمل هذا دواء مافيبين 500 ملجم عن طريق منع المواد الكيميائية التي تنتج إشارات الألم في الجسم.  يستخدم دواء مافيبين 500 ملجم 20 قرص لما يلي:  تخفيف الآلام الخفيفة إلى المتوسطة مثل وجع الأسنان أو الصداع أو آلام العضلات.  تخفيف آلام ما بعد العمليات الجراحية أو الولادة.  تقليل أعراض نزيف الحيض المؤلم.  تخفيف الألم المصاحب لتوّرم وتصلّب المفاصل الناتج عن التهاب المفاصل الروماتويدي، والتهاب المفاصل.  يمنع تناول دواء مافيبين 500 ملجم في الحالات التالية:  لدى المرضى الذين أظهروا فرط الحساسية للعلاج أو لأي مكون آخر من مكوناته أو للأسبرين أو للسليسايلات أو لمضادات الالتهاب غير الستيرويدية الأخرى.  يمنع المرضى المتوقع خضوعهم لعملية لقلب المفتوح.  مرضى أمراض الكلى.  مرضى القرحة الهضمية أو لديهم أي مرض التهابي مزمن في الأمعاء.  الباركود  6281086000991</t>
-  </si>
-  <si>
-    <t>بيتاسيرك24 مجم 50 قرص بيتاهستين ثنائي هيدروكلوريد هو دواء يستخدم لعلاج مرض منيير الذي يتجلى في ثلاث علامات مختلفة؛ الدوار (الدوخة المرتبطة بالقيء أو الغثيان) وطنين الأذن (سماع الأصوات في غياب الأصوات الخارجية مثل رنين الأذن) وفقدان السمع أو ضعف القدرة على السمع. كما أنه يستخدم للتخفيف من أعراض الدوار الدهليزي (الدوار حتى عندما لا تتحرك). لا تتناول بيتاهستين ثنائي هيدروكلوريد: إذا كنت تعاني من حساسية تجاه بيتاهستين ثنائي هيدروكلوريد، أو أي من مكونات هذا الدواء. أخبر طبيبك عن الحساسية والعلامات التي لديك.بيتاسيرك افضل منتج ل علاج طنين الأذن .</t>
-  </si>
-  <si>
-    <t>فرست ستيب بلاستر قطع عادى 50 قطعة يمكنك من خلالها الآن أن تنسى أنت وأطفالك جروحهم وشاشهم وجروحهم وخدوشهم وكدماتهم بمساعدة الضمادات. آمن تمامًا ونظيف ومعقم لبشرة طفلك الناعمة وبشرتك اللطيفة من جميع الأنواع. لاصق جروح شفاف تحمي إصابتك من الغبار وتأكد من أنها مريحة. إن إزالة الضمادة الجصية منفيرست ستيب هي عملية سهلة وغير مؤلمة تمامًا. يشتهر هذا المنتج بنسبة عالية من الفعالية والأمان بين الأطفال، مما يجعله ثابتًا على الجلد ويسهل عليك العناية بالإصابة. لاصق جروح مصنوع بالفعل لأطفالك ليشعروا بتحسن حيال جروحهم التي لا مفر منها. يوجد إجمالي 50 قطعة في العبوة وهي تأتي بأربعة أحجام مختلفة مناسبة لتقديم الإسعافات الأولية لعائلتك بأكملها أثناء حالات الطوارئ. ضمادة لاصقة من فيرست ستيب هي أكثر منتجات الإسعافات الأولية الموثوق بها والأكثر شهرة لجميع العائلات التي تحب فكرة الأمان والراحة في منتج واحد،يوقف النزيف من الجروح والجروح والشاش والخدوش وما إلى ذلك. معقمة وآمنة تمامًا مقاوم للماء تماما، يمنع دوران الماء حول الجرح، يقضي على كل الجراثيم والأوساخ والبكتيريا، سهلة التطبيق، إنها إضافة رائعة لمجموعات الإسعافات الأولية. تأكد من تنظيف الجرح أو منطقة الإصابة بالماء أو مطهر وامسح برفق أي جزيئات غريبة مثل الغبار والأوساخ والحصى وما إلى ذلك،جفف الجلد والمناطق الأخرى حول الإصابة باستخدام منشفة أو قطعة قماش ناعمة ونظيفة، ضع اللاصق على الجرح دون تمزقه أو شده وتجنب التجعيد.  الباركود  6981234567887</t>
-  </si>
-  <si>
-    <t>Klacid XL 500 MG 14 Tab  الباركود  8002660016447</t>
-  </si>
-  <si>
-    <t>بخاخ أمرون C102 توتال 2 في 1 مع منظف الأنف هوعلاج فعال لأمراض مجرى الهواء السفلي مثل التهاب الشعب الهوائية والقصبات الهوائية والربو مع أعراض مثل السعال والتهاب الحلق أو ضيق التنفس والحساسيه . يقلل من ردود الفعل التحسسية من خلال شطف الحساسية. يزيل البكتيريا والفيروسات لتقليل مخاطر الإصابة بالامراض.  الباركود  4015672111240</t>
-  </si>
-  <si>
-    <t>ماسك بار غسول البشرة بالفحمss  الباركود  628816004403</t>
-  </si>
-  <si>
-    <t>إيزي كير غسول خفيف للبشرة الدهنية 110 مللي  الباركود  6285095009259</t>
-  </si>
-  <si>
-    <t>افين ماء ميسيلار منظف و مزيل مكياج 400 مل يحتوى على مواد منظفة لطيفة على البشرة وفعالية القضاء على الشوائب من البشرة. ينظم إفراز الدهون: لوريت غليسيريل (إحدىبراءات الإختراع لدى شركة بيير فابر) ينظم فرط إفراز الدهون. تنقية: سيتريمونيوم بروميد ينقي الجلد. تركيبة غنية من مياه أفين الحرارية, و الذي يمتلك جميع خصائص ترطيب و تلطيف و إزالة إلتهابات البشرة. فوائد المنتج : ينظف بشكل عميق دون أن يتسبب في جفاف البشرة. خالي من الصابون تعليمات الاستخدام : يوضع على الوجه و العينين و / أو الجسم لإزالة الماكياج ، لترطيب البشرة و تطهيرلطيف.لا يشطف. يستعمل صباحاً مساءاً  الباركود  3282770207811</t>
-  </si>
-  <si>
-    <t>وايت برستيج فوردى - كريم تفتيح نهاري 50 مل  فوائد  يفتح البشرة ، ويوحد لونها ، ويمنع التصبغ المفرط ويحسن حالة الجلد عالميًا.  الباركود  5907609345714  كيف تستعمل  ضعي الكريم كل صباح على بشرة الوجه النظيفة ، مع تجنب منطقة العين. افركي الكريم برفق على الجلد.</t>
-  </si>
-  <si>
-    <t>بابي جل للعناية الشخصية للأطفال 200 مل هو جل مخصص لتنظيف المنطقة الحساسة لدى الأطفال. يساعد جل بيب على حماية مستوى الرقم الهيدروجيني الطبيعي للمنطقة الحميمة للرضيع. جل النظافة الحميمة مصنوع من Alpha-Glucan Oligosaccharides الذي يساعد على الحماية من الالتهابات المحتملة. يحتوي على مواد منشطة تساعد على منع التقرح والتهيج المحتمل. يمنع الالتهابات لدى كل من الفتيات (التهاب الفرج) والفتيان (التهاب الحشفة). يمكن استخدامه يوميًا دون تهيج. يعمل جل العناية على تنظيف المنطقة برفق أي شوائب قد تضر بسلامة الجلد مع ترطيب البشرة . تم اختباره طبيا من قبل أطباء أمراض النساء والجلد للاستخدام اليومي يوضع على المنطقة الرطبة للمعالجة ويشطف بالماء بوفرة.  الباركود  8437000945901</t>
-  </si>
-  <si>
-    <t>ماء ميسيلار الحصري بماء الورد والفاوانيا الملكية ، 500 مل  مركز ثمين ومغذي مليء بالفلافونيدات والفيتامينات وأحماض أوميغا من مستخلصات الورد الفرنسي والفاوانيا الملكية المختارة بعناية. بفضل الناقل الغروي على شكل ببتيد ذهبي ، فإنه يضمن التسريب الفوري للمكونات النشطة في عمق الجلد. القوة المضادة للأكسدة للورد الفرنسي وزهور الفاوانيا الملكية الذهب الغرواني والببتيدات الناقلة التي تضمن الاختراق الفعال للمكونات في عمق الجلد وكذلك تحفيز إنتاج الكولاجين والإيلاستين مغذي العسل وزيت اللوز الحلو الثمين تجديد وإضاءة قوة الريتينول النباتي - باكوتشيول  ضعيه برفق على الوجه والرقبة حسب الحاجة باستخدام وسادة قطنية نظيفة. وثبتيها في مكانها لعدة ثوانٍ قبل مسحها.</t>
-  </si>
-  <si>
-    <t>avaloncare Bio-cellulose Anti-aging Mask provides a second skin effect that perfectly fits the face shape. It is formulated from anti-time active ingredients that help protect against premature signs of aging and preserve the skin youth, so it stays fresh and toned. Blueberry extract is rich in vitamin C and flavonoids. These two antioxidants help the skin to neutralize free radicals and reduce the early signs of aging. Fucogel® forms a film on the skin surface to maintain its hydration in addition to its stimulating and toning effect. PhytoCellTec™ is a preparation of apple stem cells from a rare Swiss apple species (Uttwiler Spätlauber). This active ingredient reactivates the functions of the original skin stem cells  الباركود  3490720021824</t>
-  </si>
-  <si>
-    <t>ماسك بار إن جريدينت ماسك النوم بالمانجو  الباركود  628816005202</t>
-  </si>
-  <si>
-    <t>كريم ماكسون سوفت وايت للتفتيح 50 مل هو كريم تفتيح البشرة غني بمستخلص التوت والفيتامينات اللازمة لتغذية البشرة. يساعد على تقليل الخدوش وندبات حب الشباب والبقع الداكنة من البشرة بفاعلية يزيد من نضارة البشرة ويحسنها، ويعمل على توحيد لون البشره ويقوم بتنظيفها من الشوائب والأتربة ويعمل ايضا كمقشر للجلد الميت فهو منتج طبي فعال آمن للاستخدام.  الباركود  1094922230682</t>
-  </si>
-  <si>
-    <t>بيزلين قناع فاخر بالزفير الأبيض يعمل على تعزيز البشره. اعطائها مظهر مشرق. يحتوى على مواد كثيره لتفتيح البشره. يعمل على شد البشره. يترك الماسك لمده 15 دقيقه على بشره نظيفه. يزال الماسك وتدلك البشره بسائل حتى يمتصه البشرة.يستعمل مره اسبوعيا.  الباركود  5281018020586</t>
-  </si>
-  <si>
-    <t>Sunscreen Cream  Its protection factor is reinforced &amp; optimized, brings comfort to the skin  Apply daily to the face 30 mins before each sun exposure, regularly renew the application  40ML  الباركود  3760095253633</t>
-  </si>
-  <si>
-    <t>1. يُبلل الوجه بالماء قبل استخدام الغسول. 2. يُدلك بلطف مع تجنب منطقة العينين والشفاه. 3. يُشطف بالماء.  تجنبوا الاحتكاك المباشر بالعينين.  75 مل  الباركود  4005900916587</t>
-  </si>
-  <si>
-    <t>رايوس واقي الشمس البخاخ الياباني برائحة الصابون الرائع, الأول من نوعه يستخدم بعد/فوق المكياج, للوجه والجسم والشعر والأطفال, مضاد للماء ويسهل ازالته بالصابون أو غسولات البشرة, يناسب للبشرة الحساسة وجميع أنواع البشرة.  الوقاية من أشعة الشمس و ضوء النهار, سهل الاستخدام, مضاد للماء, للوجه و الجسم و الشعر, للأطفال و الكبار و جميع أنواع البشرة.  بخاخ للوجه و الجسم و الشعر قبل ثواني من التعرض لأشعة الشمس  الباركود  4533213669598</t>
-  </si>
-  <si>
-    <t>جانسن منظف للوجه 200 مل  الباركود  4040943005324</t>
-  </si>
-  <si>
-    <t>إنترفيون - فرشاة شعر ، بيضاوية ، مجموعة ربيع الباستيل  الباركود  5902704986978</t>
-  </si>
-  <si>
-    <t>ماوي شامبو بخلاصة حليب جوز الهند المغذي والمرطب, 385مل  الباركود  22796170514</t>
-  </si>
-  <si>
-    <t>شرائح فيت إيزي جريب الشمعية جاهزة للاستخدام للبشرة العادية 20 شريحة تساعد على تقشير البشرة فورًا والحصول على نعومة لمدة تصل إلى أربعة أسابيع. مصنوع خصيصًا من زبدة الشيا ، وهو معروف بخصائصه المرطبة وله رائحة التوت ، وهو مناسب للبشرة العادية. ويمكن أن تساعدك علامة ™ Easy Grip الخاصة سهلة الاستخدام على تطوير الخبرة لإزالة الشعر من الجذور بحركة بسيطة. يمكن استخدام شرائح الشمع حتى على الشعر القصير - مع الاستخدام المنتظم ، سيصبح شعر ظهرك الطويل أقل وأكثر نعومة وسلاسة.  الباركود  5000146055853</t>
-  </si>
-  <si>
-    <t>كريم فيت لإزالة الشعر للبشرة الحساسة بخلاصة الصبار وفيتامين E 100 مل مطور خصيصا بالصبار وفيتامين اي ، فهو يساعد على منع الطفح الجلدي والكتل والنتوءات المحرجة بالجلد. يعمل على إزالة الشعر القصير جدًا للحصول على بشرة ناعمة ، والتي تدوم حتى ضعف المدة التي يمكن الوصول لها باستخدام ماكينة الحلاقة العادية. يأتي مع أداة مثالية لفرد الكريم بسهولة على الجلد لضمان تغطية كافة الشعر المراد إزالته. يساعد الكريم على منح الجلد نعومة فائقة. ذو تركيبة تعمل على إضعاف شعر الجلد لسهولة إزالته وبطئ نموه مرة آخرى. لذا فإن شريحة الملعقة هي كل ما يتطلبه الأمر لجعل بشرتك ناعمة. استفد من بشرة حريرية ناعمة ورطبة لمدة 24 ساعة. فكل ما عليكِ أن تقومي بوضع طبقة من الكريم بواسطة أداة الفرد واحصلي على بشرة حريرية ناعمة ورطبة لمدة 24 ساعة في غضون 5 دقائق فقط.  الباركود  5000146980353</t>
-  </si>
-  <si>
-    <t>أنليفين جل للشعر ثبات متوسط  يتم تدليك الجل على الشعر الجاف أو المبلل ثم يتم التصفيف المناسب  الباركود  5055028321540</t>
-  </si>
-  <si>
-    <t>إنترفيون - مشط زجاجي عريض  الباركود  5902704998490</t>
-  </si>
-  <si>
-    <t>يعيد بناء ألياف الشعر ويجعله أقوي بنسبة 93% أكثر.  يعالج تلف الشعر من الداخل ويعيد بناء الروابط المتكسرة الناتجة من (مكواة الشعر، مجفف الشعر، مجعد الشعر، صبغات الشعر، تفتيح اللون، منتجات الفرد، التمشيط، شد الشعر، التشابك، أشعة الشمس الضارة، العوامل البيئية والملوثات).  يقوي روابط الشعر ويكون روابط جديدة ويمنح الشعر غلاف حماية ضد عوامل التلف الخارجية.  يمنح الشعر التغذية والنعومة واللمعان .  يترك الشعر بمظهر صحى وحيوى.  يعطى نتائج احترافية كنتائج الصالونات.  الباركود  8022297115559  كيف تستعمل  يوضع الماسك على الشعر والأطراف. يترك على الشعر لمدة 5 دقائق ثم يشطف جيدا.</t>
-  </si>
-  <si>
-    <t>بابي شامبو لتساقط الشعر 250مل يمنع تساقط الشعر الناتج عن زيادة هرمون الدايهيدرو تستوستيرون. مناسب لجميع أنواع فروة الرأس. يحفز نمو الشعر، ينظم افراز الدهون وينشط الدورة الدموية على فروة الرأس. تنظيف وتغذية الشعر وترطيبه. علاج تقصف الشعر التالف والخفيف. علاج مشاكل فروة الرأس. كيفية أستخدام بابي شامبو ضد التساقط: يستخدم الشامبو على فروة الرأس المبللة مع مساج خفيف ويترك بضع دقائق ليقوم بعمله ثم يشطف جيدًا بالماء. يُستخدم مرتين أو ثلاث مرات أسبوعيًا ويفضل استخدامه مع بابي لوشن علاج تساقط الشعر.  الباركود  8437000945932</t>
-  </si>
-  <si>
-    <t>هيبربل ماسك الصبار و الافوكادو 6*250 مل  الباركود  8001090326430</t>
-  </si>
-  <si>
-    <t>بيتر مبرد الأظافر للباديكير من الألياف الزجاجية الجانب ذو الحبيبات الخشنة (180) يشكل الأظافر بينما الجانب الناعم (220) يحدد ويحسن الأظافر. شكّلي أظافرك بشكل مثالي مع المبرد الزجاجي من بيتر إيليت المميزات: يبرد الأظافر بسهولة يمنح شكلاً أفضل المواد: ورق خشن سليكون كربيد على داعم إسفنجي من البوليسترين والفلين .بيتر إيليت مبرد الأظافر يعتبر افضل مبرد ازافر علي الإطلاق.  الباركود  8412122081553</t>
-  </si>
-  <si>
-    <t>شامبو غارنييه ألترا دوكس بزيت الأفوكادو وزبدة الشيا 400 مل هو عبارة عن خلطة طبيعية ثمينة لشعر كالحرير، حيث يعمل المزيج المغذي من زيت الأفوكادو وزبدة الشيا على تغذية وتنعيم الشعر الأكثر جفافاً وتجعداً. مناسب للاستخدام اليومي للحصول على أفضل النتائج .  الباركود  3600541177741</t>
-  </si>
-  <si>
-    <t>فيلبس ماكينة حلاقه لشعر الجسم طراز 3000  الباركود  8710103848073</t>
-  </si>
-  <si>
-    <t>إجو كيوڤي مشط قمل الراس يساعد على اكتشاف وإزالة قمل الرأس والبيض بسهولة. يساعد مشط إزالة قمل الرأس من موف على اكتشاف قمل الرأس وبيضه وإزالتهما بسهولة. صُمم مشط MOOV لإزالة قمل الرأس من الفولاذ القوي والأسنان المحاذاة بدقة ، ويساعد على التقاط القمل والبيض بينما تجعله الأطراف المستديرة والمقبض المائل مريحًا في الإمساك به ولطيفًا على فروة الرأس.  الباركود  9314839016608</t>
-  </si>
-  <si>
-    <t>أسرار التغذية من دوڤ هي مجموعة مستوحاة من طقوس المرأة حول العالم و هي تجمع بين قوة دوڤ المغذية والمكونات الطبيعية  الباركود  6281006505674</t>
-  </si>
-  <si>
-    <t>Wella Koleston Color Maxi Light Ash Blonde No 304/0 provides hair intensive color and full of brilliance specialist in oil substitution. Simple to use without dripping. It completely and durablely protects even the most resistant gray hair. It gives your hair a dazzling color with strong brilliance.  الباركود  21124549006</t>
-  </si>
-  <si>
-    <t>بيبي لايف حفائض أطفال العبوة العملاقة ماكسي مقاس 5 - 66 حفاض  الباركود  6253005862775</t>
-  </si>
-  <si>
-    <t>بامبي مناديل مبللة للأطفال للتنظيف اليومي 2+1 مجانا مناديل مبللة من سانيتا بامبي ترطب وتحمي من جفاف بشرة الطفل خاصة في المناطق الملتهبة والحساسة وغنية بفيتامين هـ وخلاصة الصبّار الاستخدام مناديل سانيتا بامبي المبللة تتميز بأنها غنية بخلاصة البابونج مع خصائصه المضادة للالتهاب لتغذية وحماية البشرة الحساسة والجافة. وتتميز كذلك بتركيبة مطّورة غنية بالكريم الواقي الخاص مع الصبار لتغذية و ترطيب بشرة الرضيع عند تغيير الحفاض. بامبي مناديل تعتبر افضل مناديل مبللة علي الإطلاق.  الباركود  5281001941874</t>
-  </si>
-  <si>
-    <t>غسول وشامبو للأطفال من سيتافيل 2 في 1 بالمصمم بتركيبة "بلا دموع" لتجعل مهمة تنظيف طفلك ممتعة لك ولطفلك. خاصة أنه مصمم لتنظيف الأطفال من الشعر وحتى القدمين. تركيبة خالية من المواد الكيماوية تناسب بشرة الأطفال. صممت بتركيبة خالية من الدموع لحديثي الولادة. ينظف غسول وشامبو سيتافيل بشرة طفلك بكل لطف دون أن يتسبب في جفاها خاصة أنه خالي من المواد الكيميائية التي تسبب تهيج البشرة. تركيبته المعتمدة من أطباء العيون مصممة بدرجة حموضة متوازنة. لتترك طفلك نظيفاً وناعماً ورائحته منعشة.  الباركود  7613035392878</t>
-  </si>
-  <si>
-    <t>حليب نستله نان برو 3 المجفف المرحلة 3 لمتابعة نمو الأطفال بعد 12 شهرًا 400 جم هي تركيبة حليب مجفف لمتابعة نمو الأطفال الأكبر سنًا من 12 شهرًا. تساعد هذه التركيبة على النمو الطبيعي لدماغ طفلك ، وتشمل الكالسيوم ، والفيتامينات أ ، وج ، ود ، والحديد والزنك.يعتبرحليب نستله افضل انواع حليب الرضع.  الباركود  7613287484246</t>
-  </si>
-  <si>
-    <t>كانبول بيبي حلمة سليكون ايزى استارت رقبة عريضة حديث الولادة لهاية كانبول للأطفال بحلمة كروية مصنوعة من أفضل خامات السيليكون عالي الجودة، مع إطار مزود بفتحة تهوية لمنع التهابات الجلد، غطاء للحفاظ عليها من التلوث بالميكروبات، آمنة على الطفل فهي خالية من البيسفينول تتميز بشكل مميز وانيق بغطاء للحفاظ عليها و رقبة عريضة حلمة كروية من السيليكون عالى الجودة مما تتيح لطفلك تجربة افضل اكثر أمنا ولا تتسبب له بتعب.  الباركود  5903407217192</t>
-  </si>
-  <si>
-    <t>بيجون زجاجة الرضاعة التمعجية بلاستيك 240 مل ، زجاجة الرضاعة من بيجون مصنوعة من بلاستيك متين وعالي الجودة ، تتميز بشكلها الإنسيابي والمناسب للأمهات لسهولة استخدامها والحفاظ عليها نظيفة. يضمن السيليكون الناعم المزدوج السميك في زجاجة بيجون للرضاعة أفضل نعومة ومرونة حتى يتمكن طفلك من حمله بشكل مريح وسهل. يجعل اللسان يتحرك بسلاسة ويقلل من دخول الهواء الحلمة مصممة بطريقة يشجع حركات لسان الطفل بصورة الطبيعية.  الباركود  4902508260084</t>
-  </si>
-  <si>
-    <t>بريملاك التيما 3 عرض (3 في 4٠٠ جرام)  الباركود  7613200201530</t>
-  </si>
-  <si>
-    <t>سيباميد فقاعات استحمام للأطفال - 200 مل سيباميد غسول هو غسول الجسم مرطب للجسم يعمل على العناية بالجسم. فقاعات الجسم سيباميد تتكون من مكونات مغذية لبشرة الأطفال وهو الخيار الأفضل للمنظفات الخفيفة ، والتي يمكن أن تساعد فقاعات الجسم في حماية بشرة طفلك من الجفاف وترطيب الجسم. لا يحتوي على صابون ويمكنه تنظيف بشرة الطفل الرقيقة بلطف مع جعل وقت الاستحمام أكثر حباً.  الباركود  4103040151506</t>
-  </si>
-  <si>
-    <t>شيكو رضاعة بلاستيك اولادي منذ الولادة مع حلمة سيلكون 150 مل بسعة 150 ملى مناسباً للمواليد الجدد. سهلة التنظيف و عملية جداً للأمهات. تتميز الرضّاعة بتصاميم جذابة مطابقة لتصاميم لهايات شيكو. يعمل شكل الرضّاعة الفريد و حجمها الكبير بالإضافة إلى صمام السليكون المضاد للمغص على تهيئة أفضل الظروف لرضاعة آمنة. فوائد المنتج تحمي رضيعكِ من المغص، التقيؤ، و التهيج. غطاء مقاوم للأوساخ - لتوفير أقصى درجات الحماية و الصحة. حلمة تشبه حلمة الثدي و قابلة للتبديل. إغلاق آمن لمنع التسرب. فتحة عريضة - لتعطي سرعة في التعبئة و سهولة في التنظيف.افضل رضاعة الاطفال علي الإطلاق.  الباركود  8033828710693</t>
-  </si>
-  <si>
-    <t>حفاضات بامبي عناية مميزة مقاس صغير 136 حفاضة  136 Pcs  الباركود  6281017821220</t>
-  </si>
-  <si>
-    <t>بيبي لايف حفائض أطفال كلوت وسط مقاس 3 - 48 حفاض  الباركود  6253005861310</t>
-  </si>
-  <si>
-    <t>سانيتا بامبي حفائض أطفال عبوه عملاقة كبير 62*3 حفاضات بامبي يمكنها التكيف مع شكل جسم الطفل بشكل أفضل. يمتص أكثر ويمنع التسرب. ملمس قطني ناعم. مُزين بالألوان والرسومات. فتحة لحماية سرة الطفل. حفاض مضغوط بإمتصاص أكثر. تعليمات الاستخدام ضعي طفلك على سطح مستو وناعم. إزالة الحفاض عن طريق رفع علامات لاصق، وثني شرائط لاصقة مرة أخرى باستخدام مناديل بامبي المبللة امسحي، وقومي بتنظيف المنطقة التناسلية بمسح من الأمام إلى الخلف. ضعي حفاضات نظيفة تحت طفلك. قومي بتأمين الحفاضات النظيفة عن طريق ربط الشرائط اللاصقة من الجزء الخلفي للحفاضات إلى الجزء الأمامي. أخيرًا، ضعي طفلك في مكان آمن حتى تتمكني من التخلص من الحفاضات المتسخة وقومي بغسل يديكِ.سانيتا بامبي تعتبر أفضل حفاضات للاطفال .  الباركود  6281017353080</t>
-  </si>
-  <si>
-    <t>حليب أطفال إكسيدا لدعم النمو الصحي للأطفال 850 جم هي تركيبة نمو مغذية إضافية مثالية للأطفال من سن 1 إلى 10 سنوات. يحتوي على جميع الفيتامينات والمعادن الأساسية لصحة طفلك. بالإضافة إلى بروتينات بسيطة للهضم مما يجعل صورة الأحماض الأمينية الأساسية أقرب إلى حليب الأم. إنه محلول خاص مدعم بالحديد مع محتوى بروتين معدل.  الباركود  3575410570261</t>
-  </si>
-  <si>
-    <t>Our patented Natural Flex™ Pacifiers feature a naturally shaped baglet that flexes, stretches and moves like a mother’s nipple. This flexing movement helps to promote the natural sucking action of your baby. The Natural Flex™ Pacifiers also feature teething nubs around the base of the baglet, which massage and soothe sore gums. They are available in orthodontic, cherry and classic oval shapes so you are guaranteed to find a pacifier that is safe to use and suits your baby’s preference. Two pack assortments are also available.  BPA free  الباركود  48526675371</t>
-  </si>
-  <si>
-    <t>إن كلوتات العناية الفائقة من هجيز هي الحل الأمثل لتغيير حفاضات طفلك بشكل سريع وعملي!  تسهر هجيز على راحتك أنتِ وطفلك، إذ إن الكلوتات سهلة الارتداء والخلع. وبفضل هذه الكلوتات، باتت عملية ارتداء الحفاض وخلعه ورميه أسرع وأسهل. معًا لتجربة أسهل بدون عناء!  ليست هذه الكلوتات العالية الجودة عملية جدًا فحسب، بل إنها تتميز أيضًا بفعالية لا مثيل لها وتمنح طفلك النشيط راحة فائقة. وبفضل الحواجز المزدوجة التي تمنع التسرب، تمنح هذه الحفاضات طفلك حماية إضافية من التسرب لتنعمي براحة البال في جميع الأوقات. وتضمن طبقة الجفاف التي تعمل باللمس أن تبقى بشرة طفلك جافة لينعم بنوم عميق. ويتغيّر لون مؤشر البلل لينذرك أن الوقت قد حان لتغيير حفاض صغيرك.  ن</t>
-  </si>
-  <si>
-    <t>Nocilla, Chocolate spread 0% Gluten&amp; Palm 12x190G  الباركود  8410014470300</t>
-  </si>
-  <si>
-    <t>تقوية المناعة خط الدفاع الاول ضد الفيروسات  مكمل غذائي شراب يحتوي على زيت السمك و الفيتامينات و المعادن بنكهة المانجو و الخوخ الصناعية و المحليات  الباركود  6286127000091</t>
-  </si>
-  <si>
-    <t>علك منتوس توتي فروتي الابيض 38 قطعة  الباركود  8935001706724</t>
-  </si>
-  <si>
-    <t>لوح البروتين اللذيذ من غريناد عبارة عن لوح غني بالبروتين وهو الوجبة الخفيفة المثالية يزودك بكمية عالية من البروتين  الباركود  787692512003</t>
-  </si>
-  <si>
-    <t>اسم المنتج  كاندريل شوكولاتة باللوز، خالي من السكر- 40 جم  المكونات  لوز 33%,محلات, بودرة الحليب, زبدة الكاكاو, عجين الكاكاو, الياف, مركز الزبدة,مستحلب الصويا  وصف المنتج  يعمل كمصدر غني للبروتينات والألياف والطاقة.  وجبة خفيفة مثالية يمكن الاستمتاع بها في أي وقت.  مصنوعة من مكونات عالية الجودة مما يؤدي إلى مذاق فاخر في كل قضمة.  العبوة ذات حجم صغير ومناسب للسفر.  فوائد المنتج  بديل صحي لمن يبحث عن وجبة خفيفة صحية ولذيذة يمدك بالطاقة  تعليمات الاستخدام  هذه الشوكولاته جاهزة للأكل  التحذيرات والاحتياطات  يمكن لبعض الأشخاص التحسس من مكونات الشيكولاتة لذلك ينصح بتناولها بعد قراءة المكونات  لا ينصح بتناولها بكميات زائدة  الباركود  7630486400259</t>
-  </si>
-  <si>
-    <t>120 جامييز  الباركود  620554009962</t>
-  </si>
-  <si>
-    <t>داندي فري شامبو 120 مل  الباركود  6287002338490</t>
-  </si>
-  <si>
-    <t>دايجست سيريل 167 غرام  الباركود  8410014421982</t>
-  </si>
-  <si>
-    <t>سولوميت أوميغا 1000  سولوميت أوميغا هو منتج مميز يحتوي على زيت أوميغا 3 عالي الجودة، وهو حمض دهني أساسي ضروري لصحة القلب والأوعية الدموية. تم تصميم هذا المنتج بعناية لتلبية احتياجاتك الغذائية والصحية.  مميزات سولوميت أوميغا  زيت أوميغا 3 عالي الجودة: يحتوي سولوميت أوميغا على من زيت أوميغا 3 المستخرج من مصادر طبيعية.  دعم الصحة القلبية: الأوميغا 3 يساهم في دعم صحة القلب والأوعية الدموية.  دعم الصحة العامة: يمكن أن يساعد زيت الأوميغا 3 في تعزيز صحة الجلد والعيون ودعم وظائف الجهاز المناعي.  سهولة الاستخدام: يمكن تناول هذه الكبسولات بسهولة كجزء من نظامك الغذائي اليومي.  التوجيهات للاستخدام:  تناول كبسولة واحدة مع وجبة الطعام.  يفضل استشارة الطبيب أو مسؤول الرعاية الصحية قبل الاستخدام، خاصة إذا كنت تعاني من مشاكل صحية معينة أو تتناول أدوية أخرى.  التحذيرات والاحتياطات:  لا تتجاوز الجرعة الموصى بها.  في حالة حدوث تهيج أو حساسية، توقف عن استخدام المنتج واستشر محترف الرعاية الصحية.  حفظ المنتج بعيدًا عن متناول الأطفال وفي مكان بارد وجاف.  سولوميت أوميغا هو منتج ممتاز لتعزيز صحة القلب والأوعية الدموية والصحة العامة، اجعلها جزءًا من نمط حياتك الصحي واستمتع بالفوائد الصحية التي تقدمها.  الباركود  9332986002169</t>
-  </si>
-  <si>
-    <t>بيريدوكسين حبوب 40مجم 20حبه  الباركود  6291100082216</t>
-  </si>
-  <si>
-    <t>كل علكة تحتوي على الميلاتونين (مصدر غير حيواني) .... 1 ملغ  مكمل طبيعي لاضطراب النوم  2 علكة قبل 30 دقيقة من موعد النوم  يساهم الميلاتونين في تقليل الوقت الذي يقضيه في النوم ويساهم في تقليل أعراض التعب بعد السفر بسبب اضطراب الرحلات الجوية الطويلة.  60 جامييز  الباركود  62055400960</t>
-  </si>
-  <si>
-    <t>بي اي شريط الطاقة: 5 فواكه غابات 40 جم  الباركود  5900749624961</t>
-  </si>
-  <si>
-    <t>بديل صحي لمن يبحث عن وجبة خفيفة صحية ولذيذة  الباركود  5060221203630</t>
-  </si>
-  <si>
-    <t>ميك أب ريفوليوشن 452  الباركود  5029066075734</t>
-  </si>
-  <si>
-    <t>Revlon Classic Super Lustrous Gloss Pink Pop 235  الباركود  309973064157</t>
-  </si>
-  <si>
-    <t>Bourjois City Radiance Foundation Brightening Effect 01  الباركود  3052503563107</t>
-  </si>
-  <si>
-    <t>باليت هايلايت 010  الباركود  4059729028853</t>
-  </si>
-  <si>
-    <t>بورجوا خافي عيوب الوجه راديانس ريفيل 01 علاجي نسيج يذوب في البشرة لشعور منعش أداة مصححة للعناية بالبشرة ضرورية لإشراق طبيعي طويل الأمد بفضل أداة استخدام دقيقة، يمكن استخدامه كمضيء للوجه أيضاً نسيج يذوب في البشرة لشعور منعش يخفي هذا الكونسيلر المعزز للضوء الهالات السوداء والعيوب لإطلالة فورية منتعشة ومشرقة. يتكون من المياه الجليدية النقية من مونت بلانك وحمض الهيالورونيك المرطب ، ويوفر ما يصل إلى 24 ساعة من الترطيب للحفاظ على منطقة أسفل العين منتعشة طوال اليوم.بورجوا افضل كونسيلر للبشرة علي الإطلاق .  الباركود  3052503650128</t>
-  </si>
-  <si>
-    <t>كاتريس أحمر شفاه سائل مات جينيريشن مات كومفورتبل 100 عزّزي مظهركِ باستخدام أحمر الشفاه السائل الرائع هذا من كاتريس. بتركيبة غنيّة باللون، تمنحكِ نهاية مطفيّة مخمليّة، ومعزّز بزيت الجوجوبا، ليتركِ شفاهكِ مرطبة وبارزة بلون ساحر. لا غنى عن اقتنائه ومثالي للاستخدام اليومي.احصل على المظهر المثالي الذي تريد التباهي به باستخدام ظل الشفاه غير اللامع الجميل هذا. أحمر الشفاه سهل التطبيق ويتميز بقوام ناعم للغاية ، وسيكون اختيارًا رائعًا لإضافته إلى مجموعتك.  الباركود  4059729032270</t>
-  </si>
-  <si>
-    <t>ريمل مكياج 127  الباركود  3614221693414</t>
-  </si>
-  <si>
-    <t>Revlon Colorstay 2-In-1 Angled Kajal - 102 Fig  الباركود  309978358022</t>
-  </si>
-  <si>
-    <t>ايسي طلاء اظافر جيل كوتور يدوم طويلا رقم 180 13.5 مل سواء كنتِ ترتدين زيًا بمقاس صغير أو وسط أو كبير، لا يهم ما ترتدينه. مع هذا المنتج الذي يدوم طويلا الكريمي من الأوركيد الساحر، سيبذل الآخرون جهودًا كبيرة ليكونوا معكِ.يعتبر افضل مانكير علي الإطلاق . الخطوة الأولى: ضعي طبقتين من جل كوتور. الخطوة الثانية: ضعي طبقة علوية من الجل. فوائد منتج جل كوتور: يدوم طويلًا وفاخر بلون يشبه الجل ومتألق عبر نظام سهل من خطوتين سهل الإزالة فرشاة محتضنة منحنية في انتظار براءة الاختراع لتغطية مثالية للون من ايسي استخدميه مع وضع طبقة من جل كوتور للحصول على أفضل النتائج  الباركود  884486303806</t>
-  </si>
-  <si>
-    <t>ايسنس قلم كاجال فيل ذا ماري - تايم 25 1g مثالياً لتحديد وتحديد عينيك. بفضل تركيبته الغنية بمكونات مرطبة ، يسهل مزج هذا القلم الرصاص. ناهيك عن أنها ناعمة أيضًا وبالتالي فهي مريحة جدًا للارتداء. لذلك ، فهو رائع لإبداعاتك اليومية! في الواقع ، سيكون من أفضل حلفائك في تحقيق أنماط مكياج فريدة تتناسب مع شخصيتك. بغض النظر عن الحالة المزاجية التي تعيشها ، فإن جوهر Kajal Pencil إذا كان هناك من أجلك. سواء كنت تبحث عن مظهر أكثر كلاسيكية أو تريد إنشاء تأثير أكثر عصرية ، فهذا القلم الرصاص قد غطيت. علاوة على ذلك ، فهو طويل الأمد وسهل الاستخدام.  الباركود  4250587772050</t>
-  </si>
-  <si>
-    <t>فلورمار قلم تحديد 113  الباركود  4251903301398</t>
-  </si>
-  <si>
-    <t>Bourjois La Laque Gel 13 Reddy For Love Nail Enamel 10ml  الباركود  3052503301334</t>
-  </si>
-  <si>
-    <t>مرطب شفاة بالكشمش  الباركود  3518646028359</t>
-  </si>
-  <si>
-    <t>Revlon Classic Core Nail Enamel Hypnotic 450  الباركود  309978743057</t>
+    <t>Purified Water...</t>
+  </si>
+  <si>
+    <t>Some medical a...</t>
+  </si>
+  <si>
+    <t>ez CARE Oily S...</t>
+  </si>
+  <si>
+    <t>White Prestige...</t>
+  </si>
+  <si>
+    <t>EXCLUSIVE MICE...</t>
+  </si>
+  <si>
+    <t>avaloncare Bio...</t>
+  </si>
+  <si>
+    <t>Maxon Cream So...</t>
+  </si>
+  <si>
+    <t>Sunscreen Crea...</t>
+  </si>
+  <si>
+    <t>When you're fe...</t>
+  </si>
+  <si>
+    <t>Japanase Sunsc...</t>
+  </si>
+  <si>
+    <t>Rich cleansing...</t>
+  </si>
+  <si>
+    <t>INTERVION - Ha...</t>
+  </si>
+  <si>
+    <t>Firm Strenght ...</t>
+  </si>
+  <si>
+    <t>INTERVION -Gla...</t>
+  </si>
+  <si>
+    <t>Mask with PLEX...</t>
+  </si>
+  <si>
+    <t>Hair mask with...</t>
+  </si>
+  <si>
+    <t>ME Bodygroom w...</t>
+  </si>
+  <si>
+    <t>Dove Detox Rit...</t>
+  </si>
+  <si>
+    <t>Medical Belt h...</t>
+  </si>
+  <si>
+    <t>Nestle Nan Pro...</t>
+  </si>
+  <si>
+    <t>Dryness 12 Hou...</t>
+  </si>
+  <si>
+    <t>Our patented N...</t>
+  </si>
+  <si>
+    <t>Immune booster...</t>
+  </si>
+  <si>
+    <t>Ingredients: M...</t>
+  </si>
+  <si>
+    <t>Natural anti-i...</t>
+  </si>
+  <si>
+    <t>Each gummy con...</t>
+  </si>
+  <si>
+    <t>Rimmel Stay Ma...</t>
+  </si>
+  <si>
+    <t>ماء نقي، هيدرو...</t>
+  </si>
+  <si>
+    <t>بروف شراب معلق...</t>
+  </si>
+  <si>
+    <t>دواء اكسفورج ي...</t>
+  </si>
+  <si>
+    <t>ديكلوفيناك الص...</t>
+  </si>
+  <si>
+    <t>قد تجعلك بعض ا...</t>
+  </si>
+  <si>
+    <t>دواء مافيبين 5...</t>
+  </si>
+  <si>
+    <t>وايت برستيج فو...</t>
+  </si>
+  <si>
+    <t>ماء ميسيلار ال...</t>
+  </si>
+  <si>
+    <t>1. يُبلل الوجه...</t>
+  </si>
+  <si>
+    <t>يعيد بناء أليا...</t>
+  </si>
+  <si>
+    <t>أسرار التغذية ...</t>
+  </si>
+  <si>
+    <t>غسول وشامبو لل...</t>
+  </si>
+  <si>
+    <t>بيجون زجاجة ال...</t>
+  </si>
+  <si>
+    <t>سيباميد فقاعات...</t>
+  </si>
+  <si>
+    <t>حفاضات بامبي ع...</t>
+  </si>
+  <si>
+    <t>إن كلوتات العن...</t>
+  </si>
+  <si>
+    <t>تقوية المناعة ...</t>
+  </si>
+  <si>
+    <t>لوح البروتين ا...</t>
+  </si>
+  <si>
+    <t>اسم المنتج
+كان...</t>
+  </si>
+  <si>
+    <t>120 جامييز
+الب...</t>
+  </si>
+  <si>
+    <t>سولوميت أوميغا...</t>
+  </si>
+  <si>
+    <t>كل علكة تحتوي ...</t>
+  </si>
+  <si>
+    <t>بديل صحي لمن ي...</t>
   </si>
   <si>
     <t>628509501460</t>
@@ -2371,277 +1998,10 @@
     <t>309978743057</t>
   </si>
   <si>
-    <t>(يشترط وجود وصفة طبية لتوصيل الدواء)</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6001.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5135.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5831.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5360.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4965.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5681.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6064.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4995.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5909.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5792.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5317.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5612.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5383.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5687.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image5968.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8703.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8538.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8223.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8635.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8863.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8552.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8780.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8474.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8804.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8334.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8275.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8492.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8457.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8702.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image8788.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image333.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image571.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image915.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image694.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image707.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image344.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image300.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image236.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1203.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image48.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image965.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1421.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1097.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1285.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1262.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6676.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6842.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6777.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6713.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6513.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7104.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6924.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6554.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6764.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6930.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6678.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7036.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6544.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6534.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image6182.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7617.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7918.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7387.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7903.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7938.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7726.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7191.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7216.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7609.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7870.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7490.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7249.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7215.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7822.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image7940.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3878.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3806.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2747.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4323.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4059.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4205.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4755.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3348.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2769.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3294.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4125.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1641.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4529.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2467.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3020.jpg</t>
+    <t>(يشترط وجود وص...</t>
+  </si>
+  <si>
+    <t>https://raw.gi...</t>
   </si>
   <si>
     <t>image6001.jpg</t>
@@ -3340,40 +2700,40 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K2" t="s">
-        <v>620</v>
+        <v>557</v>
       </c>
       <c r="L2" t="s">
-        <v>705</v>
+        <v>580</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>786</v>
+        <v>661</v>
       </c>
       <c r="O2" t="s">
-        <v>876</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3381,40 +2741,40 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J3" t="s">
-        <v>535</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>621</v>
+        <v>558</v>
       </c>
       <c r="L3" t="s">
-        <v>706</v>
+        <v>581</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>787</v>
+        <v>661</v>
       </c>
       <c r="O3" t="s">
-        <v>877</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3422,37 +2782,37 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J4" t="s">
-        <v>536</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>622</v>
+        <v>105</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>788</v>
+        <v>661</v>
       </c>
       <c r="O4" t="s">
-        <v>878</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3460,43 +2820,43 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J5" t="s">
-        <v>537</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="L5" t="s">
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="M5" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>789</v>
+        <v>661</v>
       </c>
       <c r="O5" t="s">
-        <v>879</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3504,43 +2864,43 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J6" t="s">
-        <v>538</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>624</v>
+        <v>560</v>
       </c>
       <c r="L6" t="s">
-        <v>708</v>
+        <v>583</v>
       </c>
       <c r="M6" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>790</v>
+        <v>661</v>
       </c>
       <c r="O6" t="s">
-        <v>880</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3548,37 +2908,37 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K7" t="s">
-        <v>625</v>
+        <v>561</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>791</v>
+        <v>661</v>
       </c>
       <c r="O7" t="s">
-        <v>881</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3586,40 +2946,40 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J8" t="s">
-        <v>540</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>626</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>709</v>
+        <v>584</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>792</v>
+        <v>661</v>
       </c>
       <c r="O8" t="s">
-        <v>882</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3627,43 +2987,43 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J9" t="s">
-        <v>541</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>627</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>710</v>
+        <v>585</v>
       </c>
       <c r="M9" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>793</v>
+        <v>661</v>
       </c>
       <c r="O9" t="s">
-        <v>883</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3671,40 +3031,40 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J10" t="s">
-        <v>542</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>628</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>794</v>
+        <v>661</v>
       </c>
       <c r="O10" t="s">
-        <v>884</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3712,43 +3072,43 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J11" t="s">
-        <v>543</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
       <c r="L11" t="s">
-        <v>711</v>
+        <v>586</v>
       </c>
       <c r="M11" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>795</v>
+        <v>661</v>
       </c>
       <c r="O11" t="s">
-        <v>885</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3756,40 +3116,40 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J12" t="s">
-        <v>544</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>630</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>796</v>
+        <v>661</v>
       </c>
       <c r="O12" t="s">
-        <v>886</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3797,40 +3157,40 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J13" t="s">
-        <v>545</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>631</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>712</v>
+        <v>587</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>797</v>
+        <v>661</v>
       </c>
       <c r="O13" t="s">
-        <v>887</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -3838,43 +3198,43 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J14" t="s">
-        <v>546</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>632</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>713</v>
+        <v>588</v>
       </c>
       <c r="M14" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>798</v>
+        <v>661</v>
       </c>
       <c r="O14" t="s">
-        <v>888</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3882,40 +3242,40 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J15" t="s">
-        <v>547</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>633</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>714</v>
+        <v>589</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>799</v>
+        <v>661</v>
       </c>
       <c r="O15" t="s">
-        <v>889</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3923,40 +3283,40 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J16" t="s">
-        <v>548</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>800</v>
+        <v>661</v>
       </c>
       <c r="O16" t="s">
-        <v>890</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -3964,40 +3324,40 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J17" t="s">
-        <v>549</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>634</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>715</v>
+        <v>590</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>801</v>
+        <v>661</v>
       </c>
       <c r="O17" t="s">
-        <v>891</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -4005,40 +3365,40 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J18" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="K18" t="s">
-        <v>635</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
-        <v>716</v>
+        <v>591</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>802</v>
+        <v>661</v>
       </c>
       <c r="O18" t="s">
-        <v>892</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4046,40 +3406,40 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H19" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J19" t="s">
-        <v>551</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>636</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s">
-        <v>717</v>
+        <v>592</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>803</v>
+        <v>661</v>
       </c>
       <c r="O19" t="s">
-        <v>893</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4087,40 +3447,40 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J20" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="K20" t="s">
-        <v>637</v>
+        <v>563</v>
       </c>
       <c r="L20" t="s">
-        <v>718</v>
+        <v>593</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>804</v>
+        <v>661</v>
       </c>
       <c r="O20" t="s">
-        <v>894</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4128,40 +3488,40 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G21" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J21" t="s">
-        <v>553</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>638</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>805</v>
+        <v>661</v>
       </c>
       <c r="O21" t="s">
-        <v>895</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4169,37 +3529,37 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J22" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="K22" t="s">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>806</v>
+        <v>661</v>
       </c>
       <c r="O22" t="s">
-        <v>896</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -4210,37 +3570,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G23" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H23" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J23" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="K23" t="s">
-        <v>640</v>
+        <v>535</v>
       </c>
       <c r="L23" t="s">
-        <v>720</v>
+        <v>595</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>807</v>
+        <v>661</v>
       </c>
       <c r="O23" t="s">
-        <v>897</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4248,40 +3608,40 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J24" t="s">
-        <v>556</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>641</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s">
-        <v>721</v>
+        <v>596</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>808</v>
+        <v>661</v>
       </c>
       <c r="O24" t="s">
-        <v>898</v>
+        <v>684</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -4289,37 +3649,37 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G25" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>809</v>
+        <v>661</v>
       </c>
       <c r="O25" t="s">
-        <v>899</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4327,40 +3687,40 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J26" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="K26" t="s">
-        <v>642</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s">
-        <v>722</v>
+        <v>597</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>810</v>
+        <v>661</v>
       </c>
       <c r="O26" t="s">
-        <v>900</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4368,40 +3728,40 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J27" t="s">
-        <v>558</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>643</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s">
-        <v>723</v>
+        <v>598</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>811</v>
+        <v>661</v>
       </c>
       <c r="O27" t="s">
-        <v>901</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4412,37 +3772,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J28" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="K28" t="s">
-        <v>644</v>
+        <v>537</v>
       </c>
       <c r="L28" t="s">
-        <v>724</v>
+        <v>599</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>812</v>
+        <v>661</v>
       </c>
       <c r="O28" t="s">
-        <v>902</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -4450,40 +3810,40 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H29" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J29" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="K29" t="s">
-        <v>645</v>
+        <v>565</v>
       </c>
       <c r="L29" t="s">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>813</v>
+        <v>661</v>
       </c>
       <c r="O29" t="s">
-        <v>903</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4491,40 +3851,40 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H30" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J30" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="K30" t="s">
-        <v>646</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>726</v>
+        <v>601</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>814</v>
+        <v>661</v>
       </c>
       <c r="O30" t="s">
-        <v>904</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4532,40 +3892,40 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H31" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J31" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="K31" t="s">
-        <v>647</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s">
-        <v>727</v>
+        <v>602</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>815</v>
+        <v>661</v>
       </c>
       <c r="O31" t="s">
-        <v>905</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4573,40 +3933,40 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J32" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="K32" t="s">
-        <v>648</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s">
-        <v>728</v>
+        <v>603</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>816</v>
+        <v>661</v>
       </c>
       <c r="O32" t="s">
-        <v>906</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4614,40 +3974,40 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J33" t="s">
-        <v>564</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s">
-        <v>649</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>729</v>
+        <v>604</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>817</v>
+        <v>661</v>
       </c>
       <c r="O33" t="s">
-        <v>907</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4655,40 +4015,40 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J34" t="s">
-        <v>565</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>650</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s">
-        <v>730</v>
+        <v>605</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>818</v>
+        <v>661</v>
       </c>
       <c r="O34" t="s">
-        <v>908</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -4696,40 +4056,40 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H35" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J35" t="s">
-        <v>566</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>651</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>731</v>
+        <v>606</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>819</v>
+        <v>661</v>
       </c>
       <c r="O35" t="s">
-        <v>909</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4737,2346 +4097,2346 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H36" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J36" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="K36" t="s">
-        <v>652</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
-        <v>732</v>
+        <v>607</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>820</v>
+        <v>661</v>
       </c>
       <c r="O36" t="s">
-        <v>910</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J37" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="K37" t="s">
-        <v>653</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s">
-        <v>733</v>
+        <v>608</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>821</v>
+        <v>661</v>
       </c>
       <c r="O37" t="s">
-        <v>911</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J38" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="K38" t="s">
-        <v>654</v>
+        <v>566</v>
       </c>
       <c r="L38" t="s">
-        <v>734</v>
+        <v>609</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>822</v>
+        <v>661</v>
       </c>
       <c r="O38" t="s">
-        <v>912</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H39" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J39" t="s">
-        <v>570</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s">
-        <v>655</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>823</v>
+        <v>661</v>
       </c>
       <c r="O39" t="s">
-        <v>913</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J40" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="K40" t="s">
-        <v>656</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s">
-        <v>736</v>
+        <v>611</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>824</v>
+        <v>661</v>
       </c>
       <c r="O40" t="s">
-        <v>914</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H41" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J41" t="s">
-        <v>572</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s">
-        <v>657</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s">
-        <v>737</v>
+        <v>612</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>825</v>
+        <v>661</v>
       </c>
       <c r="O41" t="s">
-        <v>915</v>
+        <v>701</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H42" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J42" t="s">
-        <v>573</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s">
-        <v>658</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>826</v>
+        <v>661</v>
       </c>
       <c r="O42" t="s">
-        <v>916</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H43" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I43" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J43" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="K43" t="s">
-        <v>659</v>
+        <v>142</v>
       </c>
       <c r="L43" t="s">
-        <v>739</v>
+        <v>614</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>827</v>
+        <v>661</v>
       </c>
       <c r="O43" t="s">
-        <v>917</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H44" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J44" t="s">
-        <v>575</v>
+        <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>660</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>740</v>
+        <v>615</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>828</v>
+        <v>661</v>
       </c>
       <c r="O44" t="s">
-        <v>918</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H45" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I45" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J45" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="K45" t="s">
-        <v>661</v>
+        <v>567</v>
       </c>
       <c r="L45" t="s">
-        <v>741</v>
+        <v>616</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>829</v>
+        <v>661</v>
       </c>
       <c r="O45" t="s">
-        <v>919</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H46" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I46" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J46" t="s">
-        <v>577</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>662</v>
+        <v>58</v>
       </c>
       <c r="L46" t="s">
-        <v>742</v>
+        <v>617</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>830</v>
+        <v>661</v>
       </c>
       <c r="O46" t="s">
-        <v>920</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J47" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="K47" t="s">
-        <v>663</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s">
-        <v>743</v>
+        <v>618</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>831</v>
+        <v>661</v>
       </c>
       <c r="O47" t="s">
-        <v>921</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H48" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>579</v>
+        <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>664</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s">
-        <v>744</v>
+        <v>619</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>832</v>
+        <v>661</v>
       </c>
       <c r="O48" t="s">
-        <v>922</v>
+        <v>708</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G49" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H49" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>580</v>
+        <v>61</v>
       </c>
       <c r="K49" t="s">
-        <v>665</v>
+        <v>568</v>
       </c>
       <c r="L49" t="s">
-        <v>745</v>
+        <v>620</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>833</v>
+        <v>661</v>
       </c>
       <c r="O49" t="s">
-        <v>923</v>
+        <v>709</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G50" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H50" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="K50" t="s">
-        <v>666</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s">
-        <v>746</v>
+        <v>621</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>834</v>
+        <v>661</v>
       </c>
       <c r="O50" t="s">
-        <v>924</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G51" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H51" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J51" t="s">
-        <v>582</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s">
-        <v>667</v>
+        <v>150</v>
       </c>
       <c r="L51" t="s">
-        <v>747</v>
+        <v>622</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>835</v>
+        <v>661</v>
       </c>
       <c r="O51" t="s">
-        <v>925</v>
+        <v>711</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G52" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H52" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J52" t="s">
-        <v>583</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s">
-        <v>668</v>
+        <v>569</v>
       </c>
       <c r="L52" t="s">
-        <v>748</v>
+        <v>623</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>836</v>
+        <v>661</v>
       </c>
       <c r="O52" t="s">
-        <v>926</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F53" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G53" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H53" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I53" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J53" t="s">
-        <v>584</v>
+        <v>65</v>
       </c>
       <c r="K53" t="s">
-        <v>669</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s">
-        <v>749</v>
+        <v>624</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>837</v>
+        <v>661</v>
       </c>
       <c r="O53" t="s">
-        <v>927</v>
+        <v>713</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G54" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H54" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>585</v>
+        <v>66</v>
       </c>
       <c r="K54" t="s">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="L54" t="s">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>838</v>
+        <v>661</v>
       </c>
       <c r="O54" t="s">
-        <v>928</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H55" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J55" t="s">
-        <v>586</v>
+        <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>671</v>
+        <v>154</v>
       </c>
       <c r="L55" t="s">
-        <v>751</v>
+        <v>626</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>839</v>
+        <v>661</v>
       </c>
       <c r="O55" t="s">
-        <v>929</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F56" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G56" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I56" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J56" t="s">
-        <v>587</v>
+        <v>68</v>
       </c>
       <c r="K56" t="s">
-        <v>672</v>
+        <v>571</v>
       </c>
       <c r="L56" t="s">
-        <v>752</v>
+        <v>627</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>840</v>
+        <v>661</v>
       </c>
       <c r="O56" t="s">
-        <v>930</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G57" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H57" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J57" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K57" t="s">
-        <v>673</v>
+        <v>146</v>
       </c>
       <c r="L57" t="s">
-        <v>753</v>
+        <v>628</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>841</v>
+        <v>661</v>
       </c>
       <c r="O57" t="s">
-        <v>931</v>
+        <v>717</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H58" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I58" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J58" t="s">
-        <v>589</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s">
-        <v>674</v>
+        <v>156</v>
       </c>
       <c r="L58" t="s">
-        <v>754</v>
+        <v>629</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>842</v>
+        <v>661</v>
       </c>
       <c r="O58" t="s">
-        <v>932</v>
+        <v>718</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F59" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G59" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H59" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J59" t="s">
-        <v>590</v>
+        <v>71</v>
       </c>
       <c r="K59" t="s">
-        <v>675</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s">
-        <v>755</v>
+        <v>630</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>843</v>
+        <v>661</v>
       </c>
       <c r="O59" t="s">
-        <v>933</v>
+        <v>719</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F60" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G60" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H60" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J60" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="K60" t="s">
-        <v>676</v>
+        <v>551</v>
       </c>
       <c r="L60" t="s">
-        <v>756</v>
+        <v>631</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>844</v>
+        <v>661</v>
       </c>
       <c r="O60" t="s">
-        <v>934</v>
+        <v>720</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G61" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H61" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J61" t="s">
-        <v>592</v>
+        <v>73</v>
       </c>
       <c r="K61" t="s">
-        <v>677</v>
+        <v>572</v>
       </c>
       <c r="L61" t="s">
-        <v>757</v>
+        <v>632</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>845</v>
+        <v>661</v>
       </c>
       <c r="O61" t="s">
-        <v>935</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G62" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H62" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>846</v>
+        <v>661</v>
       </c>
       <c r="O62" t="s">
-        <v>936</v>
+        <v>722</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G63" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H63" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J63" t="s">
-        <v>593</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>678</v>
+        <v>75</v>
       </c>
       <c r="L63" t="s">
-        <v>758</v>
+        <v>633</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>847</v>
+        <v>661</v>
       </c>
       <c r="O63" t="s">
-        <v>937</v>
+        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H64" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J64" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="K64" t="s">
-        <v>679</v>
+        <v>573</v>
       </c>
       <c r="L64" t="s">
-        <v>759</v>
+        <v>634</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>848</v>
+        <v>661</v>
       </c>
       <c r="O64" t="s">
-        <v>938</v>
+        <v>724</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G65" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H65" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J65" t="s">
-        <v>595</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s">
-        <v>680</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s">
-        <v>760</v>
+        <v>635</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>849</v>
+        <v>661</v>
       </c>
       <c r="O65" t="s">
-        <v>939</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G66" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H66" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J66" t="s">
-        <v>596</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>681</v>
+        <v>574</v>
       </c>
       <c r="L66" t="s">
-        <v>761</v>
+        <v>636</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>850</v>
+        <v>661</v>
       </c>
       <c r="O66" t="s">
-        <v>940</v>
+        <v>726</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G67" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H67" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J67" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="K67" t="s">
-        <v>682</v>
+        <v>575</v>
       </c>
       <c r="L67" t="s">
-        <v>762</v>
+        <v>637</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>851</v>
+        <v>661</v>
       </c>
       <c r="O67" t="s">
-        <v>941</v>
+        <v>727</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G68" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H68" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>852</v>
+        <v>661</v>
       </c>
       <c r="O68" t="s">
-        <v>942</v>
+        <v>728</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F69" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G69" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H69" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J69" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="K69" t="s">
-        <v>683</v>
+        <v>576</v>
       </c>
       <c r="L69" t="s">
-        <v>763</v>
+        <v>638</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>853</v>
+        <v>661</v>
       </c>
       <c r="O69" t="s">
-        <v>943</v>
+        <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H70" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J70" t="s">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s">
-        <v>684</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s">
-        <v>764</v>
+        <v>639</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>854</v>
+        <v>661</v>
       </c>
       <c r="O70" t="s">
-        <v>944</v>
+        <v>730</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F71" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H71" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J71" t="s">
-        <v>600</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s">
-        <v>685</v>
+        <v>167</v>
       </c>
       <c r="L71" t="s">
-        <v>765</v>
+        <v>640</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>855</v>
+        <v>661</v>
       </c>
       <c r="O71" t="s">
-        <v>945</v>
+        <v>731</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G72" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H72" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J72" t="s">
-        <v>601</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s">
-        <v>686</v>
+        <v>577</v>
       </c>
       <c r="L72" t="s">
-        <v>766</v>
+        <v>641</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>856</v>
+        <v>661</v>
       </c>
       <c r="O72" t="s">
-        <v>946</v>
+        <v>732</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H73" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J73" t="s">
-        <v>602</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>687</v>
+        <v>169</v>
       </c>
       <c r="L73" t="s">
-        <v>767</v>
+        <v>642</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>857</v>
+        <v>661</v>
       </c>
       <c r="O73" t="s">
-        <v>947</v>
+        <v>733</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H74" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J74" t="s">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="K74" t="s">
-        <v>688</v>
+        <v>578</v>
       </c>
       <c r="L74" t="s">
-        <v>768</v>
+        <v>643</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>858</v>
+        <v>661</v>
       </c>
       <c r="O74" t="s">
-        <v>948</v>
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G75" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H75" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J75" t="s">
-        <v>604</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s">
-        <v>769</v>
+        <v>644</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>859</v>
+        <v>661</v>
       </c>
       <c r="O75" t="s">
-        <v>949</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G76" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H76" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J76" t="s">
-        <v>605</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>690</v>
+        <v>579</v>
       </c>
       <c r="L76" t="s">
-        <v>770</v>
+        <v>645</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>860</v>
+        <v>661</v>
       </c>
       <c r="O76" t="s">
-        <v>950</v>
+        <v>736</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G77" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H77" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I77" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>861</v>
+        <v>661</v>
       </c>
       <c r="O77" t="s">
-        <v>951</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G78" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H78" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I78" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="J78" t="s">
-        <v>606</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>691</v>
+        <v>174</v>
       </c>
       <c r="L78" t="s">
-        <v>771</v>
+        <v>646</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>862</v>
+        <v>661</v>
       </c>
       <c r="O78" t="s">
-        <v>952</v>
+        <v>738</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G79" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H79" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I79" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J79" t="s">
-        <v>607</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s">
-        <v>692</v>
+        <v>91</v>
       </c>
       <c r="L79" t="s">
-        <v>772</v>
+        <v>647</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>863</v>
+        <v>661</v>
       </c>
       <c r="O79" t="s">
-        <v>953</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F80" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H80" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I80" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J80" t="s">
-        <v>608</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>693</v>
+        <v>92</v>
       </c>
       <c r="L80" t="s">
-        <v>773</v>
+        <v>648</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>864</v>
+        <v>661</v>
       </c>
       <c r="O80" t="s">
-        <v>954</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G81" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H81" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I81" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J81" t="s">
-        <v>609</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>694</v>
+        <v>175</v>
       </c>
       <c r="L81" t="s">
-        <v>774</v>
+        <v>649</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>865</v>
+        <v>661</v>
       </c>
       <c r="O81" t="s">
-        <v>955</v>
+        <v>741</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G82" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H82" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I82" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J82" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="K82" t="s">
-        <v>695</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>866</v>
+        <v>661</v>
       </c>
       <c r="O82" t="s">
-        <v>956</v>
+        <v>742</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G83" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H83" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I83" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J83" t="s">
-        <v>611</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s">
-        <v>696</v>
+        <v>177</v>
       </c>
       <c r="L83" t="s">
-        <v>776</v>
+        <v>651</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>867</v>
+        <v>661</v>
       </c>
       <c r="O83" t="s">
-        <v>957</v>
+        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F84" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G84" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H84" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I84" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J84" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="K84" t="s">
-        <v>697</v>
+        <v>178</v>
       </c>
       <c r="L84" t="s">
-        <v>777</v>
+        <v>652</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>868</v>
+        <v>661</v>
       </c>
       <c r="O84" t="s">
-        <v>958</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F85" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G85" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H85" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I85" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J85" t="s">
-        <v>613</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s">
-        <v>698</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s">
-        <v>778</v>
+        <v>653</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>869</v>
+        <v>661</v>
       </c>
       <c r="O85" t="s">
-        <v>959</v>
+        <v>745</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F86" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G86" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H86" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I86" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J86" t="s">
-        <v>614</v>
+        <v>98</v>
       </c>
       <c r="K86" t="s">
-        <v>699</v>
+        <v>179</v>
       </c>
       <c r="L86" t="s">
-        <v>779</v>
+        <v>654</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>870</v>
+        <v>661</v>
       </c>
       <c r="O86" t="s">
-        <v>960</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F87" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G87" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H87" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I87" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J87" t="s">
-        <v>615</v>
+        <v>99</v>
       </c>
       <c r="K87" t="s">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="L87" t="s">
-        <v>780</v>
+        <v>655</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>871</v>
+        <v>661</v>
       </c>
       <c r="O87" t="s">
-        <v>961</v>
+        <v>747</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G88" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H88" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J88" t="s">
-        <v>616</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>701</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s">
-        <v>781</v>
+        <v>656</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>872</v>
+        <v>661</v>
       </c>
       <c r="O88" t="s">
-        <v>962</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G89" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H89" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I89" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J89" t="s">
-        <v>617</v>
+        <v>101</v>
       </c>
       <c r="K89" t="s">
-        <v>702</v>
+        <v>101</v>
       </c>
       <c r="L89" t="s">
-        <v>782</v>
+        <v>657</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>873</v>
+        <v>661</v>
       </c>
       <c r="O89" t="s">
-        <v>963</v>
+        <v>749</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F90" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G90" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H90" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J90" t="s">
-        <v>618</v>
+        <v>102</v>
       </c>
       <c r="K90" t="s">
-        <v>703</v>
+        <v>182</v>
       </c>
       <c r="L90" t="s">
-        <v>783</v>
+        <v>658</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>874</v>
+        <v>661</v>
       </c>
       <c r="O90" t="s">
-        <v>964</v>
+        <v>750</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G91" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H91" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I91" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J91" t="s">
-        <v>619</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>704</v>
+        <v>91</v>
       </c>
       <c r="L91" t="s">
-        <v>784</v>
+        <v>659</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>875</v>
+        <v>661</v>
       </c>
       <c r="O91" t="s">
-        <v>965</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/samples/SA-عينة-منتجات-الصيدلية-preview.xlsx
+++ b/samples/SA-عينة-منتجات-الصيدلية-preview.xlsx
@@ -1741,12 +1741,10 @@
     <t>لوح البروتين ا...</t>
   </si>
   <si>
-    <t>اسم المنتج
-كان...</t>
-  </si>
-  <si>
-    <t>120 جامييز
-الب...</t>
+    <t>اسم المنتج كان...</t>
+  </si>
+  <si>
+    <t>120 جامييز الب...</t>
   </si>
   <si>
     <t>سولوميت أوميغا...</t>
